--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3429718.66</v>
+        <v>12305621.17</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137188.75</v>
+        <v>332584.36</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354214.92</v>
+        <v>352298.85</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153529.36</v>
+        <v>152905.72</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>451913.37</v>
+        <v>451139.08</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153601.19</v>
+        <v>110644.38</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1511.37</v>
+        <v>1429.02</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>290233.36</v>
+        <v>290937.89</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>400439.91</v>
+        <v>399115.36</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>130038.08</v>
+        <v>119367.47</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>225556.52</v>
+        <v>226850.25</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>124039.5</v>
+        <v>123614.05</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87134.60000000001</v>
+        <v>87083.3</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>186257.54</v>
+        <v>199194.72</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>200698.61</v>
+        <v>200355.67</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>134137.35</v>
+        <v>134505.35</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>141170.21</v>
+        <v>141173.13</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54886.29</v>
+        <v>54808.78</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>39098.49</v>
+        <v>44079.18</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>67388.78999999999</v>
+        <v>67310.59</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37008.97</v>
+        <v>36955.9</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73645.08</v>
+        <v>142566.35</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>41874.48</v>
+        <v>41823.15</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13629.56</v>
+        <v>13608.51</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>22973.58</v>
+        <v>23006.82</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6265.97</v>
+        <v>6278.04</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,127 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38471.56</v>
+        <v>38651.4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>176292.67</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>41261.46</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>8667.219999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4700735.6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>15715.2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>161821.49</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>786146.59</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>424372.3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5407.05</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>6278.04</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2519220.59</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,395 +439,517 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12305621.17</v>
+        <v>142566.35</v>
+      </c>
+      <c r="C2" t="n">
+        <v>171714.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>332584.36</v>
+        <v>352298.85</v>
+      </c>
+      <c r="C3" t="n">
+        <v>352711.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352298.85</v>
+        <v>41823.15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>56920.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>152905.72</v>
+        <v>67310.59</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67262.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>451139.08</v>
+        <v>152905.72</v>
+      </c>
+      <c r="C6" t="n">
+        <v>152915.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110644.38</v>
+        <v>451139.08</v>
+      </c>
+      <c r="C7" t="n">
+        <v>451910.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1429.02</v>
+        <v>15715.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15716.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>290937.89</v>
+        <v>161821.49</v>
+      </c>
+      <c r="C9" t="n">
+        <v>162096.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>399115.36</v>
+        <v>13608.51</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13115.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>119367.47</v>
+        <v>110644.38</v>
+      </c>
+      <c r="C11" t="n">
+        <v>97946.41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>226850.25</v>
+        <v>424372.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>388942.39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>123614.05</v>
+        <v>1429.02</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1393.15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87083.3</v>
+        <v>176292.67</v>
+      </c>
+      <c r="C14" t="n">
+        <v>175020.68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>199194.72</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>200355.67</v>
+        <v>199194.72</v>
+      </c>
+      <c r="C16" t="n">
+        <v>199456.88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>134505.35</v>
+        <v>200355.67</v>
+      </c>
+      <c r="C17" t="n">
+        <v>200689.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>141173.13</v>
+        <v>290937.89</v>
+      </c>
+      <c r="C18" t="n">
+        <v>320077.42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54808.78</v>
+        <v>399115.36</v>
+      </c>
+      <c r="C19" t="n">
+        <v>419711.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>44079.18</v>
+        <v>23006.82</v>
+      </c>
+      <c r="C20" t="n">
+        <v>23193.57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>67310.59</v>
+        <v>5407.05</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5395.58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36955.9</v>
+        <v>119367.47</v>
+      </c>
+      <c r="C22" t="n">
+        <v>119179.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>142566.35</v>
+        <v>226850.25</v>
+      </c>
+      <c r="C23" t="n">
+        <v>226105.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>41823.15</v>
+        <v>44079.18</v>
+      </c>
+      <c r="C24" t="n">
+        <v>42422.76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13608.51</v>
+        <v>6278.04</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8769.280000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>23006.82</v>
+        <v>6278.04</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8769.280000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6278.04</v>
+        <v>41261.46</v>
+      </c>
+      <c r="C27" t="n">
+        <v>41477.86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38651.4</v>
+        <v>8667.219999999999</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8697.51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>38651.4</v>
+      </c>
+      <c r="C29" t="n">
+        <v>38466.38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176292.67</v>
+        <v>134505.35</v>
+      </c>
+      <c r="C30" t="n">
+        <v>134399.26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41261.46</v>
+        <v>141173.13</v>
+      </c>
+      <c r="C31" t="n">
+        <v>141478.88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8667.219999999999</v>
+        <v>36955.9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>36804.22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4700735.6</v>
+        <v>123614.05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>123664.98</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15715.2</v>
+        <v>87083.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>87190.08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>161821.49</v>
+        <v>2519220.59</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2522709.04</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>786146.59</v>
+        <v>4700735.6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4951585.53</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>424372.3</v>
+        <v>786146.59</v>
+      </c>
+      <c r="C37" t="n">
+        <v>788234.37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5407.05</v>
+        <v>54808.78</v>
+      </c>
+      <c r="C38" t="n">
+        <v>54903.93</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6278.04</v>
+        <v>332584.36</v>
+      </c>
+      <c r="C39" t="n">
+        <v>340839.09</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2519220.59</v>
+        <v>12305621.17</v>
+      </c>
+      <c r="C40" t="n">
+        <v>12611046.4</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,385 +439,504 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12602277.12</v>
+        <v>171714.82</v>
+      </c>
+      <c r="C2" t="n">
+        <v>183982.94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350063.25</v>
+        <v>352711.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>353916.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171714.82</v>
+        <v>56920.39</v>
+      </c>
+      <c r="C4" t="n">
+        <v>56640.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>352711.1</v>
+        <v>67262.34</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67392.53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56920.39</v>
+        <v>152915.14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>152779.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67262.34</v>
+        <v>451910.52</v>
+      </c>
+      <c r="C7" t="n">
+        <v>450369.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>152915.14</v>
+        <v>15716.18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15765.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>451910.52</v>
+        <v>162096.04</v>
+      </c>
+      <c r="C9" t="n">
+        <v>163183.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15716.18</v>
+        <v>13115.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13098.67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162096.04</v>
+        <v>97946.41</v>
+      </c>
+      <c r="C11" t="n">
+        <v>149791.54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13115.3</v>
+        <v>388942.39</v>
+      </c>
+      <c r="C12" t="n">
+        <v>286403.95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97946.41</v>
+        <v>1393.15</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1251.93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>388942.39</v>
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1393.15</v>
+        <v>175020.68</v>
+      </c>
+      <c r="C15" t="n">
+        <v>175316.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>199456.88</v>
+      </c>
+      <c r="C16" t="n">
+        <v>199276.31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>175020.68</v>
+        <v>200689.13</v>
+      </c>
+      <c r="C17" t="n">
+        <v>200773.94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>199456.88</v>
+        <v>320077.42</v>
+      </c>
+      <c r="C18" t="n">
+        <v>320449.12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>200689.13</v>
+        <v>419711.1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>438745.35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320077.42</v>
+        <v>23193.57</v>
+      </c>
+      <c r="C20" t="n">
+        <v>23136.87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>419711.1</v>
+        <v>5395.58</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5402.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23193.57</v>
+        <v>119179.1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>119893.54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5395.58</v>
+        <v>226105.8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>246902.99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>119179.1</v>
+        <v>42422.76</v>
+      </c>
+      <c r="C24" t="n">
+        <v>44342.64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>226105.8</v>
+        <v>8769.280000000001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8758.74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42422.76</v>
+        <v>41477.86</v>
+      </c>
+      <c r="C26" t="n">
+        <v>41486.82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8769.280000000001</v>
+        <v>8697.51</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8822.65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41477.86</v>
+        <v>38466.38</v>
+      </c>
+      <c r="C28" t="n">
+        <v>38601.49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8697.51</v>
+        <v>134399.26</v>
+      </c>
+      <c r="C29" t="n">
+        <v>134062.76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>38466.38</v>
+        <v>141478.88</v>
+      </c>
+      <c r="C30" t="n">
+        <v>141372.46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>134399.26</v>
+        <v>36804.22</v>
+      </c>
+      <c r="C31" t="n">
+        <v>76993.42999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141478.88</v>
+        <v>123664.98</v>
+      </c>
+      <c r="C32" t="n">
+        <v>123889.66</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36804.22</v>
+        <v>87190.08</v>
+      </c>
+      <c r="C33" t="n">
+        <v>86999.64999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>123664.98</v>
+        <v>2522709.04</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2523074.61</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87190.08</v>
+        <v>4951585.53</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4953727.79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2522709.04</v>
+        <v>788234.37</v>
+      </c>
+      <c r="C36" t="n">
+        <v>787038.3100000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4951585.53</v>
+        <v>54903.93</v>
+      </c>
+      <c r="C37" t="n">
+        <v>54823.59</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>788234.37</v>
+        <v>350063.25</v>
+      </c>
+      <c r="C38" t="n">
+        <v>351346.33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>54903.93</v>
+        <v>12602277.12</v>
+      </c>
+      <c r="C39" t="n">
+        <v>12648467.73</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -597,9 +597,7 @@
       <c r="B13" t="n">
         <v>1393.15</v>
       </c>
-      <c r="C13" t="n">
-        <v>1251.93</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -610,9 +608,7 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -623,9 +619,7 @@
       <c r="B15" t="n">
         <v>175020.68</v>
       </c>
-      <c r="C15" t="n">
-        <v>175316.94</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -636,9 +630,7 @@
       <c r="B16" t="n">
         <v>199456.88</v>
       </c>
-      <c r="C16" t="n">
-        <v>199276.31</v>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -649,9 +641,7 @@
       <c r="B17" t="n">
         <v>200689.13</v>
       </c>
-      <c r="C17" t="n">
-        <v>200773.94</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -662,9 +652,7 @@
       <c r="B18" t="n">
         <v>320077.42</v>
       </c>
-      <c r="C18" t="n">
-        <v>320449.12</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -805,9 +793,7 @@
       <c r="B29" t="n">
         <v>134399.26</v>
       </c>
-      <c r="C29" t="n">
-        <v>134062.76</v>
-      </c>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -923,7 +909,7 @@
         <v>350063.25</v>
       </c>
       <c r="C38" t="n">
-        <v>351346.33</v>
+        <v>400597.82</v>
       </c>
     </row>
     <row r="39">
@@ -936,7 +922,7 @@
         <v>12602277.12</v>
       </c>
       <c r="C39" t="n">
-        <v>12648467.73</v>
+        <v>11617336.73</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171714.82</v>
+        <v>243926.19</v>
       </c>
       <c r="C2" t="n">
-        <v>183982.94</v>
+        <v>244685.35</v>
       </c>
       <c r="D2" t="n">
-        <v>183523.47</v>
+        <v>244114.29</v>
       </c>
       <c r="E2" t="n">
-        <v>232660.85</v>
+        <v>243848.81</v>
       </c>
       <c r="F2" t="n">
-        <v>308272.53</v>
+        <v>243936.59</v>
       </c>
       <c r="G2" t="n">
-        <v>308199.36</v>
-      </c>
-      <c r="H2" t="n">
-        <v>331376.19</v>
-      </c>
-      <c r="I2" t="n">
-        <v>307815.82</v>
-      </c>
-      <c r="J2" t="n">
-        <v>307684.83</v>
-      </c>
-      <c r="K2" t="n">
-        <v>307841.35</v>
-      </c>
-      <c r="L2" t="n">
-        <v>244628.45</v>
-      </c>
-      <c r="M2" t="n">
-        <v>243926.19</v>
+        <v>243797.25</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352711.1</v>
+        <v>396586.26</v>
       </c>
       <c r="C3" t="n">
-        <v>353916.93</v>
+        <v>396502.64</v>
       </c>
       <c r="D3" t="n">
-        <v>353800.08</v>
+        <v>396564.67</v>
       </c>
       <c r="E3" t="n">
-        <v>353367.21</v>
+        <v>397657.52</v>
       </c>
       <c r="F3" t="n">
-        <v>353850.76</v>
+        <v>396717.6</v>
       </c>
       <c r="G3" t="n">
-        <v>352142.49</v>
-      </c>
-      <c r="H3" t="n">
-        <v>351984.58</v>
-      </c>
-      <c r="I3" t="n">
-        <v>352059.85</v>
-      </c>
-      <c r="J3" t="n">
-        <v>352403.35</v>
-      </c>
-      <c r="K3" t="n">
-        <v>353146.14</v>
-      </c>
-      <c r="L3" t="n">
-        <v>352190.85</v>
-      </c>
-      <c r="M3" t="n">
-        <v>396586.26</v>
+        <v>397885.25</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56920.39</v>
+        <v>56632.87</v>
       </c>
       <c r="C4" t="n">
-        <v>56640.22</v>
+        <v>56816.17</v>
       </c>
       <c r="D4" t="n">
-        <v>66680.02</v>
+        <v>29578.85</v>
       </c>
       <c r="E4" t="n">
-        <v>66765.2</v>
+        <v>29608.31</v>
       </c>
       <c r="F4" t="n">
-        <v>66798.94</v>
+        <v>29798.82</v>
       </c>
       <c r="G4" t="n">
-        <v>66628.42999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>66867.85000000001</v>
-      </c>
-      <c r="I4" t="n">
-        <v>66658.72</v>
-      </c>
-      <c r="J4" t="n">
-        <v>67060.74000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>66768.60000000001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>66596.83</v>
-      </c>
-      <c r="M4" t="n">
-        <v>56632.87</v>
+        <v>29842.62</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67262.34</v>
+        <v>67106.03999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>67392.53</v>
+        <v>67312.02</v>
       </c>
       <c r="D5" t="n">
-        <v>67222.49000000001</v>
+        <v>67458.92999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>67300.25999999999</v>
+        <v>67377.38</v>
       </c>
       <c r="F5" t="n">
-        <v>67136.75</v>
+        <v>86150.32000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>67127.03999999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>67274.06</v>
-      </c>
-      <c r="I5" t="n">
-        <v>67377.53999999999</v>
-      </c>
-      <c r="J5" t="n">
-        <v>67292.75</v>
-      </c>
-      <c r="K5" t="n">
-        <v>67167.56</v>
-      </c>
-      <c r="L5" t="n">
-        <v>67101.05</v>
-      </c>
-      <c r="M5" t="n">
-        <v>67106.03999999999</v>
+        <v>111822.76</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152915.14</v>
+        <v>152749.24</v>
       </c>
       <c r="C6" t="n">
-        <v>152779.73</v>
+        <v>153124.98</v>
       </c>
       <c r="D6" t="n">
-        <v>153426.78</v>
+        <v>152838.14</v>
       </c>
       <c r="E6" t="n">
-        <v>153234.85</v>
+        <v>153579.27</v>
       </c>
       <c r="F6" t="n">
-        <v>153751.36</v>
+        <v>152912.07</v>
       </c>
       <c r="G6" t="n">
-        <v>153227.64</v>
-      </c>
-      <c r="H6" t="n">
-        <v>152807.32</v>
-      </c>
-      <c r="I6" t="n">
-        <v>153650.04</v>
-      </c>
-      <c r="J6" t="n">
-        <v>153390.68</v>
-      </c>
-      <c r="K6" t="n">
-        <v>153018.23</v>
-      </c>
-      <c r="L6" t="n">
-        <v>152764.43</v>
-      </c>
-      <c r="M6" t="n">
-        <v>152749.24</v>
+        <v>153722.2</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>451910.52</v>
+        <v>451497.34</v>
       </c>
       <c r="C7" t="n">
-        <v>450369.4</v>
+        <v>450028.09</v>
       </c>
       <c r="D7" t="n">
-        <v>451686.34</v>
+        <v>449781.17</v>
       </c>
       <c r="E7" t="n">
-        <v>450848.27</v>
+        <v>451570.62</v>
       </c>
       <c r="F7" t="n">
-        <v>450112.12</v>
+        <v>450292.44</v>
       </c>
       <c r="G7" t="n">
-        <v>450726.63</v>
-      </c>
-      <c r="H7" t="n">
-        <v>450941.83</v>
-      </c>
-      <c r="I7" t="n">
-        <v>451544.39</v>
-      </c>
-      <c r="J7" t="n">
-        <v>450872.53</v>
-      </c>
-      <c r="K7" t="n">
-        <v>450861.03</v>
-      </c>
-      <c r="L7" t="n">
-        <v>451023.95</v>
-      </c>
-      <c r="M7" t="n">
-        <v>451497.34</v>
+        <v>451860.17</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15716.18</v>
+        <v>15702.27</v>
       </c>
       <c r="C8" t="n">
-        <v>15765.09</v>
+        <v>15761.59</v>
       </c>
       <c r="D8" t="n">
-        <v>15700.64</v>
+        <v>15775.65</v>
       </c>
       <c r="E8" t="n">
-        <v>15735.5</v>
+        <v>15739.47</v>
       </c>
       <c r="F8" t="n">
-        <v>15740.3</v>
+        <v>15740.98</v>
       </c>
       <c r="G8" t="n">
-        <v>15778.54</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15670.01</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15668.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>15670.89</v>
-      </c>
-      <c r="K8" t="n">
-        <v>15653.86</v>
-      </c>
-      <c r="L8" t="n">
-        <v>15727.3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>15702.27</v>
+        <v>15676.66</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>162096.04</v>
+        <v>161043.36</v>
       </c>
       <c r="C9" t="n">
-        <v>163183.04</v>
+        <v>164849.55</v>
       </c>
       <c r="D9" t="n">
-        <v>161220.49</v>
+        <v>164839.04</v>
       </c>
       <c r="E9" t="n">
-        <v>159617.35</v>
+        <v>160205.26</v>
       </c>
       <c r="F9" t="n">
-        <v>160493.01</v>
+        <v>157581.31</v>
       </c>
       <c r="G9" t="n">
-        <v>158992.68</v>
-      </c>
-      <c r="H9" t="n">
-        <v>158163.83</v>
-      </c>
-      <c r="I9" t="n">
-        <v>162640.66</v>
-      </c>
-      <c r="J9" t="n">
-        <v>164242.53</v>
-      </c>
-      <c r="K9" t="n">
-        <v>161293.48</v>
-      </c>
-      <c r="L9" t="n">
-        <v>162723.47</v>
-      </c>
-      <c r="M9" t="n">
-        <v>161043.36</v>
+        <v>161197.98</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13115.3</v>
+        <v>1552.83</v>
       </c>
       <c r="C10" t="n">
-        <v>13098.67</v>
+        <v>1560.85</v>
       </c>
       <c r="D10" t="n">
-        <v>13055.46</v>
+        <v>1555.52</v>
       </c>
       <c r="E10" t="n">
-        <v>13127.12</v>
+        <v>1557.11</v>
       </c>
       <c r="F10" t="n">
-        <v>13141.44</v>
+        <v>1551.9</v>
       </c>
       <c r="G10" t="n">
-        <v>13175.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>13185.93</v>
-      </c>
-      <c r="I10" t="n">
-        <v>13119.97</v>
-      </c>
-      <c r="J10" t="n">
-        <v>13093.53</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1561.31</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1554.71</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1552.83</v>
+        <v>1561.85</v>
       </c>
     </row>
     <row r="11">
@@ -889,40 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97946.41</v>
+        <v>251009.54</v>
       </c>
       <c r="C11" t="n">
-        <v>149791.54</v>
+        <v>249724.87</v>
       </c>
       <c r="D11" t="n">
-        <v>185376.04</v>
+        <v>290083.44</v>
       </c>
       <c r="E11" t="n">
-        <v>184566.37</v>
+        <v>246922.02</v>
       </c>
       <c r="F11" t="n">
-        <v>184790.43</v>
+        <v>246419.46</v>
       </c>
       <c r="G11" t="n">
-        <v>184712.68</v>
-      </c>
-      <c r="H11" t="n">
-        <v>185099.52</v>
-      </c>
-      <c r="I11" t="n">
-        <v>184373.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>184624.84</v>
-      </c>
-      <c r="K11" t="n">
-        <v>185195.59</v>
-      </c>
-      <c r="L11" t="n">
-        <v>184835.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>251009.54</v>
+        <v>194823.24</v>
       </c>
     </row>
     <row r="12">
@@ -932,40 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>388942.39</v>
+        <v>85760.69</v>
       </c>
       <c r="C12" t="n">
-        <v>286403.95</v>
+        <v>85640.48</v>
       </c>
       <c r="D12" t="n">
-        <v>260617.92</v>
+        <v>86255.50999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>213296.29</v>
+        <v>87792.07000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>182317.47</v>
+        <v>85074.7</v>
       </c>
       <c r="G12" t="n">
-        <v>155179.67</v>
-      </c>
-      <c r="H12" t="n">
-        <v>111144.92</v>
-      </c>
-      <c r="I12" t="n">
-        <v>93134.85000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>84686.77</v>
-      </c>
-      <c r="K12" t="n">
-        <v>83364.33</v>
-      </c>
-      <c r="L12" t="n">
-        <v>85979.03</v>
-      </c>
-      <c r="M12" t="n">
-        <v>85760.69</v>
+        <v>87334.21000000001</v>
       </c>
     </row>
     <row r="13">
@@ -975,38 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1393.15</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>1372.66</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1423.59</v>
+      </c>
       <c r="D13" t="n">
-        <v>1269.69</v>
+        <v>1442.99</v>
       </c>
       <c r="E13" t="n">
-        <v>1359.47</v>
+        <v>1344.73</v>
       </c>
       <c r="F13" t="n">
-        <v>1381.01</v>
+        <v>1431.73</v>
       </c>
       <c r="G13" t="n">
-        <v>1381.89</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1319.75</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1287.85</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1239.09</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1237.17</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1365.48</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1372.66</v>
+        <v>1539.82</v>
       </c>
     </row>
     <row r="14">
@@ -1018,7 +774,9 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
@@ -1031,24 +789,6 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1057,38 +797,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>175020.68</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>172952.33</v>
+      </c>
+      <c r="C15" t="n">
+        <v>172138.23</v>
+      </c>
       <c r="D15" t="n">
-        <v>173818.07</v>
+        <v>174182.22</v>
       </c>
       <c r="E15" t="n">
-        <v>171889.31</v>
+        <v>173442.61</v>
       </c>
       <c r="F15" t="n">
-        <v>171372.2</v>
+        <v>172973.38</v>
       </c>
       <c r="G15" t="n">
-        <v>172242.59</v>
-      </c>
-      <c r="H15" t="n">
-        <v>172208.35</v>
-      </c>
-      <c r="I15" t="n">
-        <v>173026.74</v>
-      </c>
-      <c r="J15" t="n">
-        <v>171583.65</v>
-      </c>
-      <c r="K15" t="n">
-        <v>172530.57</v>
-      </c>
-      <c r="L15" t="n">
-        <v>173338.01</v>
-      </c>
-      <c r="M15" t="n">
-        <v>172952.33</v>
+        <v>172079.59</v>
       </c>
     </row>
     <row r="16">
@@ -1098,38 +822,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>199456.88</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>192612.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>192537.69</v>
+      </c>
       <c r="D16" t="n">
-        <v>199426.8</v>
+        <v>193665.82</v>
       </c>
       <c r="E16" t="n">
-        <v>198951.27</v>
+        <v>193109.18</v>
       </c>
       <c r="F16" t="n">
-        <v>209957.1</v>
+        <v>110437.38</v>
       </c>
       <c r="G16" t="n">
-        <v>209204.88</v>
-      </c>
-      <c r="H16" t="n">
-        <v>209504.19</v>
-      </c>
-      <c r="I16" t="n">
-        <v>209521.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>199729.47</v>
-      </c>
-      <c r="K16" t="n">
-        <v>200121.95</v>
-      </c>
-      <c r="L16" t="n">
-        <v>192457.95</v>
-      </c>
-      <c r="M16" t="n">
-        <v>192612.6</v>
+        <v>34140.23</v>
       </c>
     </row>
     <row r="17">
@@ -1139,38 +847,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>200689.13</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>187833.95</v>
+      </c>
+      <c r="C17" t="n">
+        <v>187475.61</v>
+      </c>
       <c r="D17" t="n">
-        <v>199964.65</v>
+        <v>187265.59</v>
       </c>
       <c r="E17" t="n">
-        <v>199846.18</v>
+        <v>177014.65</v>
       </c>
       <c r="F17" t="n">
-        <v>200671.7</v>
+        <v>95487.60000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>187306.51</v>
-      </c>
-      <c r="H17" t="n">
-        <v>187616.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>188079.83</v>
-      </c>
-      <c r="J17" t="n">
-        <v>187808.01</v>
-      </c>
-      <c r="K17" t="n">
-        <v>188298.83</v>
-      </c>
-      <c r="L17" t="n">
-        <v>187921.33</v>
-      </c>
-      <c r="M17" t="n">
-        <v>187833.95</v>
+        <v>18803.18</v>
       </c>
     </row>
     <row r="18">
@@ -1180,38 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>320077.42</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>366900.66</v>
+      </c>
+      <c r="C18" t="n">
+        <v>367689.6</v>
+      </c>
       <c r="D18" t="n">
-        <v>330964.96</v>
+        <v>356268.61</v>
       </c>
       <c r="E18" t="n">
-        <v>371524.59</v>
+        <v>357548.55</v>
       </c>
       <c r="F18" t="n">
-        <v>377381.14</v>
+        <v>366845.83</v>
       </c>
       <c r="G18" t="n">
-        <v>379187.36</v>
-      </c>
-      <c r="H18" t="n">
-        <v>380712.26</v>
-      </c>
-      <c r="I18" t="n">
-        <v>386014.42</v>
-      </c>
-      <c r="J18" t="n">
-        <v>387721.19</v>
-      </c>
-      <c r="K18" t="n">
-        <v>387716.17</v>
-      </c>
-      <c r="L18" t="n">
-        <v>377643.99</v>
-      </c>
-      <c r="M18" t="n">
-        <v>366900.66</v>
+        <v>386065.75</v>
       </c>
     </row>
     <row r="19">
@@ -1221,40 +897,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>419711.1</v>
+        <v>850595.28</v>
       </c>
       <c r="C19" t="n">
-        <v>438745.35</v>
+        <v>759707.61</v>
       </c>
       <c r="D19" t="n">
-        <v>405738.12</v>
+        <v>761343.37</v>
       </c>
       <c r="E19" t="n">
-        <v>408018.18</v>
+        <v>681321.12</v>
       </c>
       <c r="F19" t="n">
-        <v>413159.85</v>
+        <v>691170.75</v>
       </c>
       <c r="G19" t="n">
-        <v>511698.22</v>
-      </c>
-      <c r="H19" t="n">
-        <v>780492.61</v>
-      </c>
-      <c r="I19" t="n">
-        <v>879200.77</v>
-      </c>
-      <c r="J19" t="n">
-        <v>880376.09</v>
-      </c>
-      <c r="K19" t="n">
-        <v>879903.24</v>
-      </c>
-      <c r="L19" t="n">
-        <v>848982.73</v>
-      </c>
-      <c r="M19" t="n">
-        <v>850595.28</v>
+        <v>658544.04</v>
       </c>
     </row>
     <row r="20">
@@ -1264,40 +922,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>23193.57</v>
+        <v>23206.16</v>
       </c>
       <c r="C20" t="n">
-        <v>23136.87</v>
+        <v>23047.33</v>
       </c>
       <c r="D20" t="n">
-        <v>23188.73</v>
+        <v>23120.36</v>
       </c>
       <c r="E20" t="n">
-        <v>23126.45</v>
+        <v>23098</v>
       </c>
       <c r="F20" t="n">
-        <v>23061.37</v>
+        <v>23189.13</v>
       </c>
       <c r="G20" t="n">
-        <v>23234.57</v>
-      </c>
-      <c r="H20" t="n">
-        <v>23120.6</v>
-      </c>
-      <c r="I20" t="n">
-        <v>23098.04</v>
-      </c>
-      <c r="J20" t="n">
-        <v>23138.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>23215.9</v>
-      </c>
-      <c r="L20" t="n">
-        <v>23001.44</v>
-      </c>
-      <c r="M20" t="n">
-        <v>23206.16</v>
+        <v>23125.52</v>
       </c>
     </row>
     <row r="21">
@@ -1307,40 +947,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5395.58</v>
+        <v>5396.95</v>
       </c>
       <c r="C21" t="n">
-        <v>5402.1</v>
+        <v>5411.69</v>
       </c>
       <c r="D21" t="n">
-        <v>5412.44</v>
+        <v>5394.45</v>
       </c>
       <c r="E21" t="n">
-        <v>5399.85</v>
+        <v>5424.46</v>
       </c>
       <c r="F21" t="n">
-        <v>5368.16</v>
+        <v>5410.93</v>
       </c>
       <c r="G21" t="n">
-        <v>5422.01</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5420.68</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5420.04</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5394.37</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5418.63</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5396.28</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5396.95</v>
+        <v>5392.39</v>
       </c>
     </row>
     <row r="22">
@@ -1350,40 +972,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119179.1</v>
+        <v>84338.39</v>
       </c>
       <c r="C22" t="n">
-        <v>119893.54</v>
+        <v>74867</v>
       </c>
       <c r="D22" t="n">
-        <v>119465.03</v>
+        <v>74342.02</v>
       </c>
       <c r="E22" t="n">
-        <v>119122.59</v>
+        <v>69580.84</v>
       </c>
       <c r="F22" t="n">
-        <v>119402.5</v>
+        <v>69372.39999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>114146.7</v>
-      </c>
-      <c r="H22" t="n">
-        <v>114939.95</v>
-      </c>
-      <c r="I22" t="n">
-        <v>99836.45</v>
-      </c>
-      <c r="J22" t="n">
-        <v>94390.19</v>
-      </c>
-      <c r="K22" t="n">
-        <v>94279.60000000001</v>
-      </c>
-      <c r="L22" t="n">
-        <v>84549.67999999999</v>
-      </c>
-      <c r="M22" t="n">
-        <v>84338.39</v>
+        <v>64784.99</v>
       </c>
     </row>
     <row r="23">
@@ -1393,40 +997,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>226105.8</v>
+        <v>185819.75</v>
       </c>
       <c r="C23" t="n">
-        <v>246902.99</v>
+        <v>186461.99</v>
       </c>
       <c r="D23" t="n">
-        <v>196266.94</v>
+        <v>185753.45</v>
       </c>
       <c r="E23" t="n">
-        <v>196904.39</v>
+        <v>196045.32</v>
       </c>
       <c r="F23" t="n">
-        <v>195731.58</v>
+        <v>196914.55</v>
       </c>
       <c r="G23" t="n">
-        <v>195681.88</v>
-      </c>
-      <c r="H23" t="n">
-        <v>196912.18</v>
-      </c>
-      <c r="I23" t="n">
-        <v>196171.73</v>
-      </c>
-      <c r="J23" t="n">
-        <v>196613.53</v>
-      </c>
-      <c r="K23" t="n">
-        <v>197020.51</v>
-      </c>
-      <c r="L23" t="n">
-        <v>186774.61</v>
-      </c>
-      <c r="M23" t="n">
-        <v>185819.75</v>
+        <v>197185.13</v>
       </c>
     </row>
     <row r="24">
@@ -1436,40 +1022,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>42422.76</v>
+        <v>61498.46</v>
       </c>
       <c r="C24" t="n">
-        <v>44342.64</v>
+        <v>61645.71</v>
       </c>
       <c r="D24" t="n">
-        <v>57030.49</v>
+        <v>59762.79</v>
       </c>
       <c r="E24" t="n">
-        <v>59647.01</v>
+        <v>59172.29</v>
       </c>
       <c r="F24" t="n">
-        <v>59109.95</v>
+        <v>60531.74</v>
       </c>
       <c r="G24" t="n">
-        <v>59217.35</v>
-      </c>
-      <c r="H24" t="n">
-        <v>70365.45</v>
-      </c>
-      <c r="I24" t="n">
-        <v>70586.03</v>
-      </c>
-      <c r="J24" t="n">
-        <v>70148.05</v>
-      </c>
-      <c r="K24" t="n">
-        <v>70133.53999999999</v>
-      </c>
-      <c r="L24" t="n">
-        <v>69888.99000000001</v>
-      </c>
-      <c r="M24" t="n">
-        <v>61498.46</v>
+        <v>63942.95</v>
       </c>
     </row>
     <row r="25">
@@ -1479,40 +1047,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8769.280000000001</v>
+        <v>9754.639999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>8758.74</v>
+        <v>9586.120000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>9752.32</v>
+        <v>9568.92</v>
       </c>
       <c r="E25" t="n">
-        <v>9781.76</v>
+        <v>9570.99</v>
       </c>
       <c r="F25" t="n">
-        <v>9794.190000000001</v>
+        <v>9552.07</v>
       </c>
       <c r="G25" t="n">
-        <v>9763.450000000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>9761.200000000001</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9768.98</v>
-      </c>
-      <c r="J25" t="n">
-        <v>9785.870000000001</v>
-      </c>
-      <c r="K25" t="n">
-        <v>9786.74</v>
-      </c>
-      <c r="L25" t="n">
-        <v>9789.690000000001</v>
-      </c>
-      <c r="M25" t="n">
-        <v>9754.639999999999</v>
+        <v>9542.459999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1522,40 +1072,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41477.86</v>
+        <v>20113.14</v>
       </c>
       <c r="C26" t="n">
-        <v>41486.82</v>
+        <v>20136.62</v>
       </c>
       <c r="D26" t="n">
-        <v>41318.02</v>
+        <v>20124.19</v>
       </c>
       <c r="E26" t="n">
-        <v>41544.99</v>
+        <v>20103.77</v>
       </c>
       <c r="F26" t="n">
-        <v>41402.58</v>
+        <v>20120.02</v>
       </c>
       <c r="G26" t="n">
-        <v>41173.75</v>
-      </c>
-      <c r="H26" t="n">
-        <v>41434.68</v>
-      </c>
-      <c r="I26" t="n">
-        <v>41553.14</v>
-      </c>
-      <c r="J26" t="n">
-        <v>19973.89</v>
-      </c>
-      <c r="K26" t="n">
-        <v>19867.93</v>
-      </c>
-      <c r="L26" t="n">
-        <v>20055.16</v>
-      </c>
-      <c r="M26" t="n">
-        <v>20113.14</v>
+        <v>20001.62</v>
       </c>
     </row>
     <row r="27">
@@ -1565,40 +1097,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8697.51</v>
+        <v>8886.120000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>8822.65</v>
+        <v>8831.110000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>8867.9</v>
+        <v>8688.549999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>8860.33</v>
+        <v>8905.360000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>8710.120000000001</v>
+        <v>8603.879999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>8735.32</v>
-      </c>
-      <c r="H27" t="n">
-        <v>8906.1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8692.700000000001</v>
-      </c>
-      <c r="J27" t="n">
-        <v>8723.860000000001</v>
-      </c>
-      <c r="K27" t="n">
-        <v>8744.049999999999</v>
-      </c>
-      <c r="L27" t="n">
-        <v>8791.92</v>
-      </c>
-      <c r="M27" t="n">
-        <v>8886.120000000001</v>
+        <v>8610.360000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1608,40 +1122,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38466.38</v>
+        <v>35176.26</v>
       </c>
       <c r="C28" t="n">
-        <v>38601.49</v>
+        <v>35087.53</v>
       </c>
       <c r="D28" t="n">
-        <v>35094.52</v>
+        <v>34974.71</v>
       </c>
       <c r="E28" t="n">
-        <v>35112.84</v>
+        <v>21352.7</v>
       </c>
       <c r="F28" t="n">
-        <v>35122.35</v>
+        <v>21371.51</v>
       </c>
       <c r="G28" t="n">
-        <v>35009.68</v>
-      </c>
-      <c r="H28" t="n">
-        <v>35062.21</v>
-      </c>
-      <c r="I28" t="n">
-        <v>35143.82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>35095.41</v>
-      </c>
-      <c r="K28" t="n">
-        <v>35085.2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>35104.16</v>
-      </c>
-      <c r="M28" t="n">
-        <v>35176.26</v>
+        <v>7719.34</v>
       </c>
     </row>
     <row r="29">
@@ -1651,38 +1147,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>134399.26</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
+        <v>134216.31</v>
+      </c>
+      <c r="C29" t="n">
+        <v>134665.32</v>
+      </c>
       <c r="D29" t="n">
-        <v>134027.72</v>
+        <v>134226.71</v>
       </c>
       <c r="E29" t="n">
-        <v>134339.91</v>
+        <v>133985.43</v>
       </c>
       <c r="F29" t="n">
-        <v>134358.34</v>
+        <v>133879.3</v>
       </c>
       <c r="G29" t="n">
-        <v>134631.68</v>
-      </c>
-      <c r="H29" t="n">
-        <v>134266.8</v>
-      </c>
-      <c r="I29" t="n">
-        <v>134618.02</v>
-      </c>
-      <c r="J29" t="n">
-        <v>133990.19</v>
-      </c>
-      <c r="K29" t="n">
-        <v>134526.12</v>
-      </c>
-      <c r="L29" t="n">
-        <v>134583.21</v>
-      </c>
-      <c r="M29" t="n">
-        <v>134216.31</v>
+        <v>134646.84</v>
       </c>
     </row>
     <row r="30">
@@ -1692,40 +1172,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>141478.88</v>
+        <v>142074.33</v>
       </c>
       <c r="C30" t="n">
-        <v>141372.46</v>
+        <v>141741.31</v>
       </c>
       <c r="D30" t="n">
-        <v>141566.69</v>
+        <v>141036.06</v>
       </c>
       <c r="E30" t="n">
-        <v>141075.15</v>
+        <v>141277.47</v>
       </c>
       <c r="F30" t="n">
-        <v>141222.28</v>
+        <v>141511.55</v>
       </c>
       <c r="G30" t="n">
-        <v>141552.45</v>
-      </c>
-      <c r="H30" t="n">
-        <v>141659.09</v>
-      </c>
-      <c r="I30" t="n">
-        <v>141169.84</v>
-      </c>
-      <c r="J30" t="n">
-        <v>142067.72</v>
-      </c>
-      <c r="K30" t="n">
-        <v>141324.71</v>
-      </c>
-      <c r="L30" t="n">
-        <v>141793.32</v>
-      </c>
-      <c r="M30" t="n">
-        <v>142074.33</v>
+        <v>142048.13</v>
       </c>
     </row>
     <row r="31">
@@ -1735,40 +1197,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36804.22</v>
+        <v>104961.93</v>
       </c>
       <c r="C31" t="n">
-        <v>76993.42999999999</v>
+        <v>104923.14</v>
       </c>
       <c r="D31" t="n">
-        <v>76826.98</v>
+        <v>105088.51</v>
       </c>
       <c r="E31" t="n">
-        <v>76768.42999999999</v>
+        <v>105091.12</v>
       </c>
       <c r="F31" t="n">
-        <v>76763.33</v>
+        <v>117129.1</v>
       </c>
       <c r="G31" t="n">
-        <v>76738.92999999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>77042.72</v>
-      </c>
-      <c r="I31" t="n">
-        <v>96916.67</v>
-      </c>
-      <c r="J31" t="n">
-        <v>101674.59</v>
-      </c>
-      <c r="K31" t="n">
-        <v>101688.41</v>
-      </c>
-      <c r="L31" t="n">
-        <v>104627.18</v>
-      </c>
-      <c r="M31" t="n">
-        <v>104961.93</v>
+        <v>117153.63</v>
       </c>
     </row>
     <row r="32">
@@ -1778,40 +1222,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>123664.98</v>
+        <v>78100.8</v>
       </c>
       <c r="C32" t="n">
-        <v>123889.66</v>
+        <v>77646.56</v>
       </c>
       <c r="D32" t="n">
-        <v>123882.5</v>
+        <v>77613.17999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>124253.51</v>
+        <v>30223.51</v>
       </c>
       <c r="F32" t="n">
-        <v>123395.63</v>
+        <v>30089.4</v>
       </c>
       <c r="G32" t="n">
-        <v>77436.50999999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>77899.2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>77604.3</v>
-      </c>
-      <c r="J32" t="n">
-        <v>77989.85000000001</v>
-      </c>
-      <c r="K32" t="n">
-        <v>77465.7</v>
-      </c>
-      <c r="L32" t="n">
-        <v>78105.37</v>
-      </c>
-      <c r="M32" t="n">
-        <v>78100.8</v>
+        <v>30716.6</v>
       </c>
     </row>
     <row r="33">
@@ -1821,280 +1247,147 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>87190.08</v>
+        <v>85648.28999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>86999.64999999999</v>
+        <v>81251.07000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>81963.94</v>
+        <v>81124.00999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>80634.59</v>
+        <v>81728.45</v>
       </c>
       <c r="F33" t="n">
-        <v>86783.95</v>
+        <v>80709.75999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>87919.48</v>
-      </c>
-      <c r="H33" t="n">
-        <v>88198.53</v>
-      </c>
-      <c r="I33" t="n">
-        <v>87703.22</v>
-      </c>
-      <c r="J33" t="n">
-        <v>88150.64</v>
-      </c>
-      <c r="K33" t="n">
-        <v>87993.88</v>
-      </c>
-      <c r="L33" t="n">
-        <v>87948.94</v>
-      </c>
-      <c r="M33" t="n">
-        <v>85648.28999999999</v>
+        <v>87802.03</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2522709.04</v>
+        <v>5241569.4</v>
       </c>
       <c r="C34" t="n">
-        <v>2523074.61</v>
+        <v>5239272.53</v>
       </c>
       <c r="D34" t="n">
-        <v>2611507.85</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+        <v>5243061.25</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5669570.89</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6077916.81</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6080175.62</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4951585.53</v>
+        <v>786977.58</v>
       </c>
       <c r="C35" t="n">
-        <v>4953727.79</v>
+        <v>786441.13</v>
       </c>
       <c r="D35" t="n">
-        <v>4954159.19</v>
+        <v>786082.65</v>
       </c>
       <c r="E35" t="n">
-        <v>4951390.12</v>
+        <v>786735.98</v>
       </c>
       <c r="F35" t="n">
-        <v>4955029.64</v>
+        <v>787027.66</v>
       </c>
       <c r="G35" t="n">
-        <v>4951813.25</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4955077.32</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5099186.78</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5241398.84</v>
-      </c>
-      <c r="K35" t="n">
-        <v>5240417.94</v>
-      </c>
-      <c r="L35" t="n">
-        <v>5236658.47</v>
-      </c>
-      <c r="M35" t="n">
-        <v>5241569.4</v>
+        <v>786537.25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>788234.37</v>
+        <v>54885.2</v>
       </c>
       <c r="C36" t="n">
-        <v>787038.3100000001</v>
+        <v>54718.64</v>
       </c>
       <c r="D36" t="n">
-        <v>786733.73</v>
+        <v>54776.7</v>
       </c>
       <c r="E36" t="n">
-        <v>787073.61</v>
+        <v>54781.15</v>
       </c>
       <c r="F36" t="n">
-        <v>788002.37</v>
+        <v>54722.96</v>
       </c>
       <c r="G36" t="n">
-        <v>787697.4300000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>787027.5</v>
-      </c>
-      <c r="I36" t="n">
-        <v>786308.0699999999</v>
-      </c>
-      <c r="J36" t="n">
-        <v>786175.8</v>
-      </c>
-      <c r="K36" t="n">
-        <v>787831.1</v>
-      </c>
-      <c r="L36" t="n">
-        <v>788029.14</v>
-      </c>
-      <c r="M36" t="n">
-        <v>786977.58</v>
+        <v>54628.64</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54903.93</v>
+        <v>306241.65</v>
       </c>
       <c r="C37" t="n">
-        <v>54823.59</v>
+        <v>303220.39</v>
       </c>
       <c r="D37" t="n">
-        <v>54812.55</v>
+        <v>303364.35</v>
       </c>
       <c r="E37" t="n">
-        <v>54861.18</v>
+        <v>310179.61</v>
       </c>
       <c r="F37" t="n">
-        <v>54872.98</v>
+        <v>318359.3</v>
       </c>
       <c r="G37" t="n">
-        <v>54847.63</v>
-      </c>
-      <c r="H37" t="n">
-        <v>54685.74</v>
-      </c>
-      <c r="I37" t="n">
-        <v>54782.16</v>
-      </c>
-      <c r="J37" t="n">
-        <v>54800.47</v>
-      </c>
-      <c r="K37" t="n">
-        <v>54691.09</v>
-      </c>
-      <c r="L37" t="n">
-        <v>54936.29</v>
-      </c>
-      <c r="M37" t="n">
-        <v>54885.2</v>
+        <v>312991.72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>350063.25</v>
+        <v>10718457.82</v>
       </c>
       <c r="C38" t="n">
-        <v>400597.82</v>
+        <v>10612713.72</v>
       </c>
       <c r="D38" t="n">
-        <v>352371.38</v>
+        <v>10617752.32</v>
       </c>
       <c r="E38" t="n">
-        <v>288914.43</v>
+        <v>10856286.41</v>
       </c>
       <c r="F38" t="n">
-        <v>291098.84</v>
+        <v>11142575.63</v>
       </c>
       <c r="G38" t="n">
-        <v>291198.12</v>
-      </c>
-      <c r="H38" t="n">
-        <v>298804.28</v>
-      </c>
-      <c r="I38" t="n">
-        <v>304963.83</v>
-      </c>
-      <c r="J38" t="n">
-        <v>307971.21</v>
-      </c>
-      <c r="K38" t="n">
-        <v>307576.3</v>
-      </c>
-      <c r="L38" t="n">
-        <v>303910.54</v>
-      </c>
-      <c r="M38" t="n">
-        <v>306241.65</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>12602277.12</v>
-      </c>
-      <c r="C39" t="n">
-        <v>11617336.73</v>
-      </c>
-      <c r="D39" t="n">
-        <v>12685369.56</v>
-      </c>
-      <c r="E39" t="n">
-        <v>10112004.98</v>
-      </c>
-      <c r="F39" t="n">
-        <v>10188459.43</v>
-      </c>
-      <c r="G39" t="n">
-        <v>10191934.28</v>
-      </c>
-      <c r="H39" t="n">
-        <v>10458149.65</v>
-      </c>
-      <c r="I39" t="n">
-        <v>10673734.19</v>
-      </c>
-      <c r="J39" t="n">
-        <v>10778992.31</v>
-      </c>
-      <c r="K39" t="n">
-        <v>10765170.46</v>
-      </c>
-      <c r="L39" t="n">
-        <v>10636868.91</v>
-      </c>
-      <c r="M39" t="n">
-        <v>10718457.82</v>
+        <v>10954710.3</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>171714.82</v>
+      </c>
+      <c r="C2" t="n">
+        <v>183982.94</v>
+      </c>
+      <c r="D2" t="n">
+        <v>183523.47</v>
+      </c>
+      <c r="E2" t="n">
+        <v>232660.85</v>
+      </c>
+      <c r="F2" t="n">
+        <v>308272.53</v>
+      </c>
+      <c r="G2" t="n">
+        <v>308199.36</v>
+      </c>
+      <c r="H2" t="n">
+        <v>331376.19</v>
+      </c>
+      <c r="I2" t="n">
+        <v>307815.82</v>
+      </c>
+      <c r="J2" t="n">
+        <v>307684.83</v>
+      </c>
+      <c r="K2" t="n">
+        <v>307841.35</v>
+      </c>
+      <c r="L2" t="n">
+        <v>244628.45</v>
+      </c>
+      <c r="M2" t="n">
         <v>243926.19</v>
-      </c>
-      <c r="C2" t="n">
-        <v>244685.35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>244114.29</v>
-      </c>
-      <c r="E2" t="n">
-        <v>243848.81</v>
-      </c>
-      <c r="F2" t="n">
-        <v>243936.59</v>
-      </c>
-      <c r="G2" t="n">
-        <v>243797.25</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>352711.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>353916.93</v>
+      </c>
+      <c r="D3" t="n">
+        <v>353800.08</v>
+      </c>
+      <c r="E3" t="n">
+        <v>353367.21</v>
+      </c>
+      <c r="F3" t="n">
+        <v>353850.76</v>
+      </c>
+      <c r="G3" t="n">
+        <v>352142.49</v>
+      </c>
+      <c r="H3" t="n">
+        <v>351984.58</v>
+      </c>
+      <c r="I3" t="n">
+        <v>352059.85</v>
+      </c>
+      <c r="J3" t="n">
+        <v>352403.35</v>
+      </c>
+      <c r="K3" t="n">
+        <v>353146.14</v>
+      </c>
+      <c r="L3" t="n">
+        <v>352190.85</v>
+      </c>
+      <c r="M3" t="n">
         <v>396586.26</v>
-      </c>
-      <c r="C3" t="n">
-        <v>396502.64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>396564.67</v>
-      </c>
-      <c r="E3" t="n">
-        <v>397657.52</v>
-      </c>
-      <c r="F3" t="n">
-        <v>396717.6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>397885.25</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>56920.39</v>
+      </c>
+      <c r="C4" t="n">
+        <v>56640.22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>66680.02</v>
+      </c>
+      <c r="E4" t="n">
+        <v>66765.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>66798.94</v>
+      </c>
+      <c r="G4" t="n">
+        <v>66628.42999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>66867.85000000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>66658.72</v>
+      </c>
+      <c r="J4" t="n">
+        <v>67060.74000000001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>66768.60000000001</v>
+      </c>
+      <c r="L4" t="n">
+        <v>66596.83</v>
+      </c>
+      <c r="M4" t="n">
         <v>56632.87</v>
-      </c>
-      <c r="C4" t="n">
-        <v>56816.17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29578.85</v>
-      </c>
-      <c r="E4" t="n">
-        <v>29608.31</v>
-      </c>
-      <c r="F4" t="n">
-        <v>29798.82</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29842.62</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>67262.34</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67392.53</v>
+      </c>
+      <c r="D5" t="n">
+        <v>67222.49000000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>67300.25999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67136.75</v>
+      </c>
+      <c r="G5" t="n">
+        <v>67127.03999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>67274.06</v>
+      </c>
+      <c r="I5" t="n">
+        <v>67377.53999999999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>67292.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>67167.56</v>
+      </c>
+      <c r="L5" t="n">
+        <v>67101.05</v>
+      </c>
+      <c r="M5" t="n">
         <v>67106.03999999999</v>
-      </c>
-      <c r="C5" t="n">
-        <v>67312.02</v>
-      </c>
-      <c r="D5" t="n">
-        <v>67458.92999999999</v>
-      </c>
-      <c r="E5" t="n">
-        <v>67377.38</v>
-      </c>
-      <c r="F5" t="n">
-        <v>86150.32000000001</v>
-      </c>
-      <c r="G5" t="n">
-        <v>111822.76</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>152915.14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>152779.73</v>
+      </c>
+      <c r="D6" t="n">
+        <v>153426.78</v>
+      </c>
+      <c r="E6" t="n">
+        <v>153234.85</v>
+      </c>
+      <c r="F6" t="n">
+        <v>153751.36</v>
+      </c>
+      <c r="G6" t="n">
+        <v>153227.64</v>
+      </c>
+      <c r="H6" t="n">
+        <v>152807.32</v>
+      </c>
+      <c r="I6" t="n">
+        <v>153650.04</v>
+      </c>
+      <c r="J6" t="n">
+        <v>153390.68</v>
+      </c>
+      <c r="K6" t="n">
+        <v>153018.23</v>
+      </c>
+      <c r="L6" t="n">
+        <v>152764.43</v>
+      </c>
+      <c r="M6" t="n">
         <v>152749.24</v>
-      </c>
-      <c r="C6" t="n">
-        <v>153124.98</v>
-      </c>
-      <c r="D6" t="n">
-        <v>152838.14</v>
-      </c>
-      <c r="E6" t="n">
-        <v>153579.27</v>
-      </c>
-      <c r="F6" t="n">
-        <v>152912.07</v>
-      </c>
-      <c r="G6" t="n">
-        <v>153722.2</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>451910.52</v>
+      </c>
+      <c r="C7" t="n">
+        <v>450369.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>451686.34</v>
+      </c>
+      <c r="E7" t="n">
+        <v>450848.27</v>
+      </c>
+      <c r="F7" t="n">
+        <v>450112.12</v>
+      </c>
+      <c r="G7" t="n">
+        <v>450726.63</v>
+      </c>
+      <c r="H7" t="n">
+        <v>450941.83</v>
+      </c>
+      <c r="I7" t="n">
+        <v>451544.39</v>
+      </c>
+      <c r="J7" t="n">
+        <v>450872.53</v>
+      </c>
+      <c r="K7" t="n">
+        <v>450861.03</v>
+      </c>
+      <c r="L7" t="n">
+        <v>451023.95</v>
+      </c>
+      <c r="M7" t="n">
         <v>451497.34</v>
-      </c>
-      <c r="C7" t="n">
-        <v>450028.09</v>
-      </c>
-      <c r="D7" t="n">
-        <v>449781.17</v>
-      </c>
-      <c r="E7" t="n">
-        <v>451570.62</v>
-      </c>
-      <c r="F7" t="n">
-        <v>450292.44</v>
-      </c>
-      <c r="G7" t="n">
-        <v>451860.17</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +760,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>15716.18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15765.09</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15700.64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15735.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15740.3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15778.54</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15670.01</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15668.15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15670.89</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15653.86</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15727.3</v>
+      </c>
+      <c r="M8" t="n">
         <v>15702.27</v>
-      </c>
-      <c r="C8" t="n">
-        <v>15761.59</v>
-      </c>
-      <c r="D8" t="n">
-        <v>15775.65</v>
-      </c>
-      <c r="E8" t="n">
-        <v>15739.47</v>
-      </c>
-      <c r="F8" t="n">
-        <v>15740.98</v>
-      </c>
-      <c r="G8" t="n">
-        <v>15676.66</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +803,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>162096.04</v>
+      </c>
+      <c r="C9" t="n">
+        <v>163183.04</v>
+      </c>
+      <c r="D9" t="n">
+        <v>161220.49</v>
+      </c>
+      <c r="E9" t="n">
+        <v>159617.35</v>
+      </c>
+      <c r="F9" t="n">
+        <v>160493.01</v>
+      </c>
+      <c r="G9" t="n">
+        <v>158992.68</v>
+      </c>
+      <c r="H9" t="n">
+        <v>158163.83</v>
+      </c>
+      <c r="I9" t="n">
+        <v>162640.66</v>
+      </c>
+      <c r="J9" t="n">
+        <v>164242.53</v>
+      </c>
+      <c r="K9" t="n">
+        <v>161293.48</v>
+      </c>
+      <c r="L9" t="n">
+        <v>162723.47</v>
+      </c>
+      <c r="M9" t="n">
         <v>161043.36</v>
-      </c>
-      <c r="C9" t="n">
-        <v>164849.55</v>
-      </c>
-      <c r="D9" t="n">
-        <v>164839.04</v>
-      </c>
-      <c r="E9" t="n">
-        <v>160205.26</v>
-      </c>
-      <c r="F9" t="n">
-        <v>157581.31</v>
-      </c>
-      <c r="G9" t="n">
-        <v>161197.98</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +846,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>13115.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13098.67</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13055.46</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13127.12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13141.44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13175.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13185.93</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13119.97</v>
+      </c>
+      <c r="J10" t="n">
+        <v>13093.53</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1561.31</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1554.71</v>
+      </c>
+      <c r="M10" t="n">
         <v>1552.83</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1560.85</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1555.52</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1557.11</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1551.9</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1561.85</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +889,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>97946.41</v>
+      </c>
+      <c r="C11" t="n">
+        <v>149791.54</v>
+      </c>
+      <c r="D11" t="n">
+        <v>185376.04</v>
+      </c>
+      <c r="E11" t="n">
+        <v>184566.37</v>
+      </c>
+      <c r="F11" t="n">
+        <v>184790.43</v>
+      </c>
+      <c r="G11" t="n">
+        <v>184712.68</v>
+      </c>
+      <c r="H11" t="n">
+        <v>185099.52</v>
+      </c>
+      <c r="I11" t="n">
+        <v>184373.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>184624.84</v>
+      </c>
+      <c r="K11" t="n">
+        <v>185195.59</v>
+      </c>
+      <c r="L11" t="n">
+        <v>184835.5</v>
+      </c>
+      <c r="M11" t="n">
         <v>251009.54</v>
-      </c>
-      <c r="C11" t="n">
-        <v>249724.87</v>
-      </c>
-      <c r="D11" t="n">
-        <v>290083.44</v>
-      </c>
-      <c r="E11" t="n">
-        <v>246922.02</v>
-      </c>
-      <c r="F11" t="n">
-        <v>246419.46</v>
-      </c>
-      <c r="G11" t="n">
-        <v>194823.24</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +932,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>388942.39</v>
+      </c>
+      <c r="C12" t="n">
+        <v>286403.95</v>
+      </c>
+      <c r="D12" t="n">
+        <v>260617.92</v>
+      </c>
+      <c r="E12" t="n">
+        <v>213296.29</v>
+      </c>
+      <c r="F12" t="n">
+        <v>182317.47</v>
+      </c>
+      <c r="G12" t="n">
+        <v>155179.67</v>
+      </c>
+      <c r="H12" t="n">
+        <v>111144.92</v>
+      </c>
+      <c r="I12" t="n">
+        <v>93134.85000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>84686.77</v>
+      </c>
+      <c r="K12" t="n">
+        <v>83364.33</v>
+      </c>
+      <c r="L12" t="n">
+        <v>85979.03</v>
+      </c>
+      <c r="M12" t="n">
         <v>85760.69</v>
-      </c>
-      <c r="C12" t="n">
-        <v>85640.48</v>
-      </c>
-      <c r="D12" t="n">
-        <v>86255.50999999999</v>
-      </c>
-      <c r="E12" t="n">
-        <v>87792.07000000001</v>
-      </c>
-      <c r="F12" t="n">
-        <v>85074.7</v>
-      </c>
-      <c r="G12" t="n">
-        <v>87334.21000000001</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +975,38 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>1393.15</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>1269.69</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1359.47</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1381.01</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1381.89</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1319.75</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1287.85</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1239.09</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1237.17</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1365.48</v>
+      </c>
+      <c r="M13" t="n">
         <v>1372.66</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1423.59</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1442.99</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1344.73</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1431.73</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1539.82</v>
       </c>
     </row>
     <row r="14">
@@ -774,9 +1018,7 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
         <v>0</v>
       </c>
@@ -789,6 +1031,24 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -797,22 +1057,38 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>175020.68</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>173818.07</v>
+      </c>
+      <c r="E15" t="n">
+        <v>171889.31</v>
+      </c>
+      <c r="F15" t="n">
+        <v>171372.2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>172242.59</v>
+      </c>
+      <c r="H15" t="n">
+        <v>172208.35</v>
+      </c>
+      <c r="I15" t="n">
+        <v>173026.74</v>
+      </c>
+      <c r="J15" t="n">
+        <v>171583.65</v>
+      </c>
+      <c r="K15" t="n">
+        <v>172530.57</v>
+      </c>
+      <c r="L15" t="n">
+        <v>173338.01</v>
+      </c>
+      <c r="M15" t="n">
         <v>172952.33</v>
-      </c>
-      <c r="C15" t="n">
-        <v>172138.23</v>
-      </c>
-      <c r="D15" t="n">
-        <v>174182.22</v>
-      </c>
-      <c r="E15" t="n">
-        <v>173442.61</v>
-      </c>
-      <c r="F15" t="n">
-        <v>172973.38</v>
-      </c>
-      <c r="G15" t="n">
-        <v>172079.59</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +1098,38 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>199456.88</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>199426.8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>198951.27</v>
+      </c>
+      <c r="F16" t="n">
+        <v>209957.1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>209204.88</v>
+      </c>
+      <c r="H16" t="n">
+        <v>209504.19</v>
+      </c>
+      <c r="I16" t="n">
+        <v>209521.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>199729.47</v>
+      </c>
+      <c r="K16" t="n">
+        <v>200121.95</v>
+      </c>
+      <c r="L16" t="n">
+        <v>192457.95</v>
+      </c>
+      <c r="M16" t="n">
         <v>192612.6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>192537.69</v>
-      </c>
-      <c r="D16" t="n">
-        <v>193665.82</v>
-      </c>
-      <c r="E16" t="n">
-        <v>193109.18</v>
-      </c>
-      <c r="F16" t="n">
-        <v>110437.38</v>
-      </c>
-      <c r="G16" t="n">
-        <v>34140.23</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +1139,38 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>200689.13</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>199964.65</v>
+      </c>
+      <c r="E17" t="n">
+        <v>199846.18</v>
+      </c>
+      <c r="F17" t="n">
+        <v>200671.7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>187306.51</v>
+      </c>
+      <c r="H17" t="n">
+        <v>187616.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>188079.83</v>
+      </c>
+      <c r="J17" t="n">
+        <v>187808.01</v>
+      </c>
+      <c r="K17" t="n">
+        <v>188298.83</v>
+      </c>
+      <c r="L17" t="n">
+        <v>187921.33</v>
+      </c>
+      <c r="M17" t="n">
         <v>187833.95</v>
-      </c>
-      <c r="C17" t="n">
-        <v>187475.61</v>
-      </c>
-      <c r="D17" t="n">
-        <v>187265.59</v>
-      </c>
-      <c r="E17" t="n">
-        <v>177014.65</v>
-      </c>
-      <c r="F17" t="n">
-        <v>95487.60000000001</v>
-      </c>
-      <c r="G17" t="n">
-        <v>18803.18</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +1180,38 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>320077.42</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>330964.96</v>
+      </c>
+      <c r="E18" t="n">
+        <v>371524.59</v>
+      </c>
+      <c r="F18" t="n">
+        <v>377381.14</v>
+      </c>
+      <c r="G18" t="n">
+        <v>379187.36</v>
+      </c>
+      <c r="H18" t="n">
+        <v>380712.26</v>
+      </c>
+      <c r="I18" t="n">
+        <v>386014.42</v>
+      </c>
+      <c r="J18" t="n">
+        <v>387721.19</v>
+      </c>
+      <c r="K18" t="n">
+        <v>387716.17</v>
+      </c>
+      <c r="L18" t="n">
+        <v>377643.99</v>
+      </c>
+      <c r="M18" t="n">
         <v>366900.66</v>
-      </c>
-      <c r="C18" t="n">
-        <v>367689.6</v>
-      </c>
-      <c r="D18" t="n">
-        <v>356268.61</v>
-      </c>
-      <c r="E18" t="n">
-        <v>357548.55</v>
-      </c>
-      <c r="F18" t="n">
-        <v>366845.83</v>
-      </c>
-      <c r="G18" t="n">
-        <v>386065.75</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +1221,40 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>419711.1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>438745.35</v>
+      </c>
+      <c r="D19" t="n">
+        <v>405738.12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>408018.18</v>
+      </c>
+      <c r="F19" t="n">
+        <v>413159.85</v>
+      </c>
+      <c r="G19" t="n">
+        <v>511698.22</v>
+      </c>
+      <c r="H19" t="n">
+        <v>780492.61</v>
+      </c>
+      <c r="I19" t="n">
+        <v>879200.77</v>
+      </c>
+      <c r="J19" t="n">
+        <v>880376.09</v>
+      </c>
+      <c r="K19" t="n">
+        <v>879903.24</v>
+      </c>
+      <c r="L19" t="n">
+        <v>848982.73</v>
+      </c>
+      <c r="M19" t="n">
         <v>850595.28</v>
-      </c>
-      <c r="C19" t="n">
-        <v>759707.61</v>
-      </c>
-      <c r="D19" t="n">
-        <v>761343.37</v>
-      </c>
-      <c r="E19" t="n">
-        <v>681321.12</v>
-      </c>
-      <c r="F19" t="n">
-        <v>691170.75</v>
-      </c>
-      <c r="G19" t="n">
-        <v>658544.04</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +1264,40 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>23193.57</v>
+      </c>
+      <c r="C20" t="n">
+        <v>23136.87</v>
+      </c>
+      <c r="D20" t="n">
+        <v>23188.73</v>
+      </c>
+      <c r="E20" t="n">
+        <v>23126.45</v>
+      </c>
+      <c r="F20" t="n">
+        <v>23061.37</v>
+      </c>
+      <c r="G20" t="n">
+        <v>23234.57</v>
+      </c>
+      <c r="H20" t="n">
+        <v>23120.6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>23098.04</v>
+      </c>
+      <c r="J20" t="n">
+        <v>23138.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>23215.9</v>
+      </c>
+      <c r="L20" t="n">
+        <v>23001.44</v>
+      </c>
+      <c r="M20" t="n">
         <v>23206.16</v>
-      </c>
-      <c r="C20" t="n">
-        <v>23047.33</v>
-      </c>
-      <c r="D20" t="n">
-        <v>23120.36</v>
-      </c>
-      <c r="E20" t="n">
-        <v>23098</v>
-      </c>
-      <c r="F20" t="n">
-        <v>23189.13</v>
-      </c>
-      <c r="G20" t="n">
-        <v>23125.52</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +1307,40 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>5395.58</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5402.1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5412.44</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5399.85</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5368.16</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5422.01</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5420.68</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5420.04</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5394.37</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5418.63</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5396.28</v>
+      </c>
+      <c r="M21" t="n">
         <v>5396.95</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5411.69</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5394.45</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5424.46</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5410.93</v>
-      </c>
-      <c r="G21" t="n">
-        <v>5392.39</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +1350,40 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>119179.1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>119893.54</v>
+      </c>
+      <c r="D22" t="n">
+        <v>119465.03</v>
+      </c>
+      <c r="E22" t="n">
+        <v>119122.59</v>
+      </c>
+      <c r="F22" t="n">
+        <v>119402.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>114146.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>114939.95</v>
+      </c>
+      <c r="I22" t="n">
+        <v>99836.45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>94390.19</v>
+      </c>
+      <c r="K22" t="n">
+        <v>94279.60000000001</v>
+      </c>
+      <c r="L22" t="n">
+        <v>84549.67999999999</v>
+      </c>
+      <c r="M22" t="n">
         <v>84338.39</v>
-      </c>
-      <c r="C22" t="n">
-        <v>74867</v>
-      </c>
-      <c r="D22" t="n">
-        <v>74342.02</v>
-      </c>
-      <c r="E22" t="n">
-        <v>69580.84</v>
-      </c>
-      <c r="F22" t="n">
-        <v>69372.39999999999</v>
-      </c>
-      <c r="G22" t="n">
-        <v>64784.99</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +1393,40 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>226105.8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>246902.99</v>
+      </c>
+      <c r="D23" t="n">
+        <v>196266.94</v>
+      </c>
+      <c r="E23" t="n">
+        <v>196904.39</v>
+      </c>
+      <c r="F23" t="n">
+        <v>195731.58</v>
+      </c>
+      <c r="G23" t="n">
+        <v>195681.88</v>
+      </c>
+      <c r="H23" t="n">
+        <v>196912.18</v>
+      </c>
+      <c r="I23" t="n">
+        <v>196171.73</v>
+      </c>
+      <c r="J23" t="n">
+        <v>196613.53</v>
+      </c>
+      <c r="K23" t="n">
+        <v>197020.51</v>
+      </c>
+      <c r="L23" t="n">
+        <v>186774.61</v>
+      </c>
+      <c r="M23" t="n">
         <v>185819.75</v>
-      </c>
-      <c r="C23" t="n">
-        <v>186461.99</v>
-      </c>
-      <c r="D23" t="n">
-        <v>185753.45</v>
-      </c>
-      <c r="E23" t="n">
-        <v>196045.32</v>
-      </c>
-      <c r="F23" t="n">
-        <v>196914.55</v>
-      </c>
-      <c r="G23" t="n">
-        <v>197185.13</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1436,40 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>42422.76</v>
+      </c>
+      <c r="C24" t="n">
+        <v>44342.64</v>
+      </c>
+      <c r="D24" t="n">
+        <v>57030.49</v>
+      </c>
+      <c r="E24" t="n">
+        <v>59647.01</v>
+      </c>
+      <c r="F24" t="n">
+        <v>59109.95</v>
+      </c>
+      <c r="G24" t="n">
+        <v>59217.35</v>
+      </c>
+      <c r="H24" t="n">
+        <v>70365.45</v>
+      </c>
+      <c r="I24" t="n">
+        <v>70586.03</v>
+      </c>
+      <c r="J24" t="n">
+        <v>70148.05</v>
+      </c>
+      <c r="K24" t="n">
+        <v>70133.53999999999</v>
+      </c>
+      <c r="L24" t="n">
+        <v>69888.99000000001</v>
+      </c>
+      <c r="M24" t="n">
         <v>61498.46</v>
-      </c>
-      <c r="C24" t="n">
-        <v>61645.71</v>
-      </c>
-      <c r="D24" t="n">
-        <v>59762.79</v>
-      </c>
-      <c r="E24" t="n">
-        <v>59172.29</v>
-      </c>
-      <c r="F24" t="n">
-        <v>60531.74</v>
-      </c>
-      <c r="G24" t="n">
-        <v>63942.95</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1479,40 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>8769.280000000001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8758.74</v>
+      </c>
+      <c r="D25" t="n">
+        <v>9752.32</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9781.76</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9794.190000000001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9763.450000000001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9761.200000000001</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9768.98</v>
+      </c>
+      <c r="J25" t="n">
+        <v>9785.870000000001</v>
+      </c>
+      <c r="K25" t="n">
+        <v>9786.74</v>
+      </c>
+      <c r="L25" t="n">
+        <v>9789.690000000001</v>
+      </c>
+      <c r="M25" t="n">
         <v>9754.639999999999</v>
-      </c>
-      <c r="C25" t="n">
-        <v>9586.120000000001</v>
-      </c>
-      <c r="D25" t="n">
-        <v>9568.92</v>
-      </c>
-      <c r="E25" t="n">
-        <v>9570.99</v>
-      </c>
-      <c r="F25" t="n">
-        <v>9552.07</v>
-      </c>
-      <c r="G25" t="n">
-        <v>9542.459999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1522,40 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>41477.86</v>
+      </c>
+      <c r="C26" t="n">
+        <v>41486.82</v>
+      </c>
+      <c r="D26" t="n">
+        <v>41318.02</v>
+      </c>
+      <c r="E26" t="n">
+        <v>41544.99</v>
+      </c>
+      <c r="F26" t="n">
+        <v>41402.58</v>
+      </c>
+      <c r="G26" t="n">
+        <v>41173.75</v>
+      </c>
+      <c r="H26" t="n">
+        <v>41434.68</v>
+      </c>
+      <c r="I26" t="n">
+        <v>41553.14</v>
+      </c>
+      <c r="J26" t="n">
+        <v>19973.89</v>
+      </c>
+      <c r="K26" t="n">
+        <v>19867.93</v>
+      </c>
+      <c r="L26" t="n">
+        <v>20055.16</v>
+      </c>
+      <c r="M26" t="n">
         <v>20113.14</v>
-      </c>
-      <c r="C26" t="n">
-        <v>20136.62</v>
-      </c>
-      <c r="D26" t="n">
-        <v>20124.19</v>
-      </c>
-      <c r="E26" t="n">
-        <v>20103.77</v>
-      </c>
-      <c r="F26" t="n">
-        <v>20120.02</v>
-      </c>
-      <c r="G26" t="n">
-        <v>20001.62</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1565,40 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>8697.51</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8822.65</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8867.9</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8860.33</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8710.120000000001</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8735.32</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8906.1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8692.700000000001</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8723.860000000001</v>
+      </c>
+      <c r="K27" t="n">
+        <v>8744.049999999999</v>
+      </c>
+      <c r="L27" t="n">
+        <v>8791.92</v>
+      </c>
+      <c r="M27" t="n">
         <v>8886.120000000001</v>
-      </c>
-      <c r="C27" t="n">
-        <v>8831.110000000001</v>
-      </c>
-      <c r="D27" t="n">
-        <v>8688.549999999999</v>
-      </c>
-      <c r="E27" t="n">
-        <v>8905.360000000001</v>
-      </c>
-      <c r="F27" t="n">
-        <v>8603.879999999999</v>
-      </c>
-      <c r="G27" t="n">
-        <v>8610.360000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1608,40 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>38466.38</v>
+      </c>
+      <c r="C28" t="n">
+        <v>38601.49</v>
+      </c>
+      <c r="D28" t="n">
+        <v>35094.52</v>
+      </c>
+      <c r="E28" t="n">
+        <v>35112.84</v>
+      </c>
+      <c r="F28" t="n">
+        <v>35122.35</v>
+      </c>
+      <c r="G28" t="n">
+        <v>35009.68</v>
+      </c>
+      <c r="H28" t="n">
+        <v>35062.21</v>
+      </c>
+      <c r="I28" t="n">
+        <v>35143.82</v>
+      </c>
+      <c r="J28" t="n">
+        <v>35095.41</v>
+      </c>
+      <c r="K28" t="n">
+        <v>35085.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>35104.16</v>
+      </c>
+      <c r="M28" t="n">
         <v>35176.26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>35087.53</v>
-      </c>
-      <c r="D28" t="n">
-        <v>34974.71</v>
-      </c>
-      <c r="E28" t="n">
-        <v>21352.7</v>
-      </c>
-      <c r="F28" t="n">
-        <v>21371.51</v>
-      </c>
-      <c r="G28" t="n">
-        <v>7719.34</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1651,38 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>134399.26</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>134027.72</v>
+      </c>
+      <c r="E29" t="n">
+        <v>134339.91</v>
+      </c>
+      <c r="F29" t="n">
+        <v>134358.34</v>
+      </c>
+      <c r="G29" t="n">
+        <v>134631.68</v>
+      </c>
+      <c r="H29" t="n">
+        <v>134266.8</v>
+      </c>
+      <c r="I29" t="n">
+        <v>134618.02</v>
+      </c>
+      <c r="J29" t="n">
+        <v>133990.19</v>
+      </c>
+      <c r="K29" t="n">
+        <v>134526.12</v>
+      </c>
+      <c r="L29" t="n">
+        <v>134583.21</v>
+      </c>
+      <c r="M29" t="n">
         <v>134216.31</v>
-      </c>
-      <c r="C29" t="n">
-        <v>134665.32</v>
-      </c>
-      <c r="D29" t="n">
-        <v>134226.71</v>
-      </c>
-      <c r="E29" t="n">
-        <v>133985.43</v>
-      </c>
-      <c r="F29" t="n">
-        <v>133879.3</v>
-      </c>
-      <c r="G29" t="n">
-        <v>134646.84</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1692,40 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>141478.88</v>
+      </c>
+      <c r="C30" t="n">
+        <v>141372.46</v>
+      </c>
+      <c r="D30" t="n">
+        <v>141566.69</v>
+      </c>
+      <c r="E30" t="n">
+        <v>141075.15</v>
+      </c>
+      <c r="F30" t="n">
+        <v>141222.28</v>
+      </c>
+      <c r="G30" t="n">
+        <v>141552.45</v>
+      </c>
+      <c r="H30" t="n">
+        <v>141659.09</v>
+      </c>
+      <c r="I30" t="n">
+        <v>141169.84</v>
+      </c>
+      <c r="J30" t="n">
+        <v>142067.72</v>
+      </c>
+      <c r="K30" t="n">
+        <v>141324.71</v>
+      </c>
+      <c r="L30" t="n">
+        <v>141793.32</v>
+      </c>
+      <c r="M30" t="n">
         <v>142074.33</v>
-      </c>
-      <c r="C30" t="n">
-        <v>141741.31</v>
-      </c>
-      <c r="D30" t="n">
-        <v>141036.06</v>
-      </c>
-      <c r="E30" t="n">
-        <v>141277.47</v>
-      </c>
-      <c r="F30" t="n">
-        <v>141511.55</v>
-      </c>
-      <c r="G30" t="n">
-        <v>142048.13</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1735,40 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>36804.22</v>
+      </c>
+      <c r="C31" t="n">
+        <v>76993.42999999999</v>
+      </c>
+      <c r="D31" t="n">
+        <v>76826.98</v>
+      </c>
+      <c r="E31" t="n">
+        <v>76768.42999999999</v>
+      </c>
+      <c r="F31" t="n">
+        <v>76763.33</v>
+      </c>
+      <c r="G31" t="n">
+        <v>76738.92999999999</v>
+      </c>
+      <c r="H31" t="n">
+        <v>77042.72</v>
+      </c>
+      <c r="I31" t="n">
+        <v>96916.67</v>
+      </c>
+      <c r="J31" t="n">
+        <v>101674.59</v>
+      </c>
+      <c r="K31" t="n">
+        <v>101688.41</v>
+      </c>
+      <c r="L31" t="n">
+        <v>104627.18</v>
+      </c>
+      <c r="M31" t="n">
         <v>104961.93</v>
-      </c>
-      <c r="C31" t="n">
-        <v>104923.14</v>
-      </c>
-      <c r="D31" t="n">
-        <v>105088.51</v>
-      </c>
-      <c r="E31" t="n">
-        <v>105091.12</v>
-      </c>
-      <c r="F31" t="n">
-        <v>117129.1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>117153.63</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1778,40 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>123664.98</v>
+      </c>
+      <c r="C32" t="n">
+        <v>123889.66</v>
+      </c>
+      <c r="D32" t="n">
+        <v>123882.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>124253.51</v>
+      </c>
+      <c r="F32" t="n">
+        <v>123395.63</v>
+      </c>
+      <c r="G32" t="n">
+        <v>77436.50999999999</v>
+      </c>
+      <c r="H32" t="n">
+        <v>77899.2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>77604.3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>77989.85000000001</v>
+      </c>
+      <c r="K32" t="n">
+        <v>77465.7</v>
+      </c>
+      <c r="L32" t="n">
+        <v>78105.37</v>
+      </c>
+      <c r="M32" t="n">
         <v>78100.8</v>
-      </c>
-      <c r="C32" t="n">
-        <v>77646.56</v>
-      </c>
-      <c r="D32" t="n">
-        <v>77613.17999999999</v>
-      </c>
-      <c r="E32" t="n">
-        <v>30223.51</v>
-      </c>
-      <c r="F32" t="n">
-        <v>30089.4</v>
-      </c>
-      <c r="G32" t="n">
-        <v>30716.6</v>
       </c>
     </row>
     <row r="33">
@@ -1247,147 +1821,280 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>87190.08</v>
+      </c>
+      <c r="C33" t="n">
+        <v>86999.64999999999</v>
+      </c>
+      <c r="D33" t="n">
+        <v>81963.94</v>
+      </c>
+      <c r="E33" t="n">
+        <v>80634.59</v>
+      </c>
+      <c r="F33" t="n">
+        <v>86783.95</v>
+      </c>
+      <c r="G33" t="n">
+        <v>87919.48</v>
+      </c>
+      <c r="H33" t="n">
+        <v>88198.53</v>
+      </c>
+      <c r="I33" t="n">
+        <v>87703.22</v>
+      </c>
+      <c r="J33" t="n">
+        <v>88150.64</v>
+      </c>
+      <c r="K33" t="n">
+        <v>87993.88</v>
+      </c>
+      <c r="L33" t="n">
+        <v>87948.94</v>
+      </c>
+      <c r="M33" t="n">
         <v>85648.28999999999</v>
-      </c>
-      <c r="C33" t="n">
-        <v>81251.07000000001</v>
-      </c>
-      <c r="D33" t="n">
-        <v>81124.00999999999</v>
-      </c>
-      <c r="E33" t="n">
-        <v>81728.45</v>
-      </c>
-      <c r="F33" t="n">
-        <v>80709.75999999999</v>
-      </c>
-      <c r="G33" t="n">
-        <v>87802.03</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5241569.4</v>
+        <v>2522709.04</v>
       </c>
       <c r="C34" t="n">
-        <v>5239272.53</v>
+        <v>2523074.61</v>
       </c>
       <c r="D34" t="n">
-        <v>5243061.25</v>
-      </c>
-      <c r="E34" t="n">
-        <v>5669570.89</v>
-      </c>
-      <c r="F34" t="n">
-        <v>6077916.81</v>
-      </c>
-      <c r="G34" t="n">
-        <v>6080175.62</v>
-      </c>
+        <v>2611507.85</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>786977.58</v>
+        <v>4951585.53</v>
       </c>
       <c r="C35" t="n">
-        <v>786441.13</v>
+        <v>4953727.79</v>
       </c>
       <c r="D35" t="n">
-        <v>786082.65</v>
+        <v>4954159.19</v>
       </c>
       <c r="E35" t="n">
-        <v>786735.98</v>
+        <v>4951390.12</v>
       </c>
       <c r="F35" t="n">
-        <v>787027.66</v>
+        <v>4955029.64</v>
       </c>
       <c r="G35" t="n">
-        <v>786537.25</v>
+        <v>4951813.25</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4955077.32</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5099186.78</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5241398.84</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5240417.94</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5236658.47</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5241569.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>54885.2</v>
+        <v>788234.37</v>
       </c>
       <c r="C36" t="n">
-        <v>54718.64</v>
+        <v>787038.3100000001</v>
       </c>
       <c r="D36" t="n">
-        <v>54776.7</v>
+        <v>786733.73</v>
       </c>
       <c r="E36" t="n">
-        <v>54781.15</v>
+        <v>787073.61</v>
       </c>
       <c r="F36" t="n">
-        <v>54722.96</v>
+        <v>788002.37</v>
       </c>
       <c r="G36" t="n">
-        <v>54628.64</v>
+        <v>787697.4300000001</v>
+      </c>
+      <c r="H36" t="n">
+        <v>787027.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>786308.0699999999</v>
+      </c>
+      <c r="J36" t="n">
+        <v>786175.8</v>
+      </c>
+      <c r="K36" t="n">
+        <v>787831.1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>788029.14</v>
+      </c>
+      <c r="M36" t="n">
+        <v>786977.58</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>306241.65</v>
+        <v>54903.93</v>
       </c>
       <c r="C37" t="n">
-        <v>303220.39</v>
+        <v>54823.59</v>
       </c>
       <c r="D37" t="n">
-        <v>303364.35</v>
+        <v>54812.55</v>
       </c>
       <c r="E37" t="n">
-        <v>310179.61</v>
+        <v>54861.18</v>
       </c>
       <c r="F37" t="n">
-        <v>318359.3</v>
+        <v>54872.98</v>
       </c>
       <c r="G37" t="n">
-        <v>312991.72</v>
+        <v>54847.63</v>
+      </c>
+      <c r="H37" t="n">
+        <v>54685.74</v>
+      </c>
+      <c r="I37" t="n">
+        <v>54782.16</v>
+      </c>
+      <c r="J37" t="n">
+        <v>54800.47</v>
+      </c>
+      <c r="K37" t="n">
+        <v>54691.09</v>
+      </c>
+      <c r="L37" t="n">
+        <v>54936.29</v>
+      </c>
+      <c r="M37" t="n">
+        <v>54885.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>350063.25</v>
+      </c>
+      <c r="C38" t="n">
+        <v>400597.82</v>
+      </c>
+      <c r="D38" t="n">
+        <v>352371.38</v>
+      </c>
+      <c r="E38" t="n">
+        <v>288914.43</v>
+      </c>
+      <c r="F38" t="n">
+        <v>291098.84</v>
+      </c>
+      <c r="G38" t="n">
+        <v>291198.12</v>
+      </c>
+      <c r="H38" t="n">
+        <v>298804.28</v>
+      </c>
+      <c r="I38" t="n">
+        <v>304963.83</v>
+      </c>
+      <c r="J38" t="n">
+        <v>307971.21</v>
+      </c>
+      <c r="K38" t="n">
+        <v>307576.3</v>
+      </c>
+      <c r="L38" t="n">
+        <v>303910.54</v>
+      </c>
+      <c r="M38" t="n">
+        <v>306241.65</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B39" t="n">
+        <v>12602277.12</v>
+      </c>
+      <c r="C39" t="n">
+        <v>11617336.73</v>
+      </c>
+      <c r="D39" t="n">
+        <v>12685369.56</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10112004.98</v>
+      </c>
+      <c r="F39" t="n">
+        <v>10188459.43</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10191934.28</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10458149.65</v>
+      </c>
+      <c r="I39" t="n">
+        <v>10673734.19</v>
+      </c>
+      <c r="J39" t="n">
+        <v>10778992.31</v>
+      </c>
+      <c r="K39" t="n">
+        <v>10765170.46</v>
+      </c>
+      <c r="L39" t="n">
+        <v>10636868.91</v>
+      </c>
+      <c r="M39" t="n">
         <v>10718457.82</v>
-      </c>
-      <c r="C38" t="n">
-        <v>10612713.72</v>
-      </c>
-      <c r="D38" t="n">
-        <v>10617752.32</v>
-      </c>
-      <c r="E38" t="n">
-        <v>10856286.41</v>
-      </c>
-      <c r="F38" t="n">
-        <v>11142575.63</v>
-      </c>
-      <c r="G38" t="n">
-        <v>10954710.3</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171714.82</v>
+        <v>243926.19</v>
       </c>
       <c r="C2" t="n">
-        <v>183982.94</v>
+        <v>244685.35</v>
       </c>
       <c r="D2" t="n">
-        <v>183523.47</v>
+        <v>244114.29</v>
       </c>
       <c r="E2" t="n">
-        <v>232660.85</v>
+        <v>243848.81</v>
       </c>
       <c r="F2" t="n">
-        <v>308272.53</v>
+        <v>243936.59</v>
       </c>
       <c r="G2" t="n">
-        <v>308199.36</v>
+        <v>243797.25</v>
       </c>
       <c r="H2" t="n">
-        <v>331376.19</v>
+        <v>243846.24</v>
       </c>
       <c r="I2" t="n">
-        <v>307815.82</v>
+        <v>243892.26</v>
       </c>
       <c r="J2" t="n">
-        <v>307684.83</v>
+        <v>272100.54</v>
       </c>
       <c r="K2" t="n">
-        <v>307841.35</v>
+        <v>271861.82</v>
       </c>
       <c r="L2" t="n">
-        <v>244628.45</v>
+        <v>272787.77</v>
       </c>
       <c r="M2" t="n">
-        <v>243926.19</v>
+        <v>272792.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>280673.57</v>
+      </c>
+      <c r="O2" t="n">
+        <v>312985.58</v>
+      </c>
+      <c r="P2" t="n">
+        <v>375250.83</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>391059.24</v>
+      </c>
+      <c r="R2" t="n">
+        <v>390627.48</v>
+      </c>
+      <c r="S2" t="n">
+        <v>391956.4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>374815.63</v>
+      </c>
+      <c r="U2" t="n">
+        <v>374014.26</v>
+      </c>
+      <c r="V2" t="n">
+        <v>373840.24</v>
+      </c>
+      <c r="W2" t="n">
+        <v>375179.72</v>
+      </c>
+      <c r="X2" t="n">
+        <v>403419.18</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>403430.38</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>309713.31</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>309948.51</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352711.1</v>
+        <v>396586.26</v>
       </c>
       <c r="C3" t="n">
-        <v>353916.93</v>
+        <v>396502.64</v>
       </c>
       <c r="D3" t="n">
-        <v>353800.08</v>
+        <v>396564.67</v>
       </c>
       <c r="E3" t="n">
-        <v>353367.21</v>
+        <v>397657.52</v>
       </c>
       <c r="F3" t="n">
-        <v>353850.76</v>
+        <v>396717.6</v>
       </c>
       <c r="G3" t="n">
-        <v>352142.49</v>
+        <v>397885.25</v>
       </c>
       <c r="H3" t="n">
-        <v>351984.58</v>
+        <v>396762.59</v>
       </c>
       <c r="I3" t="n">
-        <v>352059.85</v>
+        <v>397053.27</v>
       </c>
       <c r="J3" t="n">
-        <v>352403.35</v>
+        <v>398483.06</v>
       </c>
       <c r="K3" t="n">
-        <v>353146.14</v>
+        <v>398900.49</v>
       </c>
       <c r="L3" t="n">
-        <v>352190.85</v>
+        <v>396124.37</v>
       </c>
       <c r="M3" t="n">
-        <v>396586.26</v>
+        <v>396271.16</v>
+      </c>
+      <c r="N3" t="n">
+        <v>398629.13</v>
+      </c>
+      <c r="O3" t="n">
+        <v>396454.81</v>
+      </c>
+      <c r="P3" t="n">
+        <v>397987.43</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>433885.72</v>
+      </c>
+      <c r="R3" t="n">
+        <v>432096.88</v>
+      </c>
+      <c r="S3" t="n">
+        <v>433977.94</v>
+      </c>
+      <c r="T3" t="n">
+        <v>428835.54</v>
+      </c>
+      <c r="U3" t="n">
+        <v>433073.93</v>
+      </c>
+      <c r="V3" t="n">
+        <v>433443.25</v>
+      </c>
+      <c r="W3" t="n">
+        <v>432679.89</v>
+      </c>
+      <c r="X3" t="n">
+        <v>468899.95</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>468611.46</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>474254.03</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>475539.25</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56920.39</v>
+        <v>56632.87</v>
       </c>
       <c r="C4" t="n">
-        <v>56640.22</v>
+        <v>56816.17</v>
       </c>
       <c r="D4" t="n">
-        <v>66680.02</v>
+        <v>29578.85</v>
       </c>
       <c r="E4" t="n">
-        <v>66765.2</v>
+        <v>29608.31</v>
       </c>
       <c r="F4" t="n">
-        <v>66798.94</v>
+        <v>29798.82</v>
       </c>
       <c r="G4" t="n">
-        <v>66628.42999999999</v>
+        <v>29842.62</v>
       </c>
       <c r="H4" t="n">
-        <v>66867.85000000001</v>
+        <v>29732.63</v>
       </c>
       <c r="I4" t="n">
-        <v>66658.72</v>
+        <v>29871.09</v>
       </c>
       <c r="J4" t="n">
-        <v>67060.74000000001</v>
+        <v>29562.52</v>
       </c>
       <c r="K4" t="n">
-        <v>66768.60000000001</v>
+        <v>29992.67</v>
       </c>
       <c r="L4" t="n">
-        <v>66596.83</v>
+        <v>29667.56</v>
       </c>
       <c r="M4" t="n">
-        <v>56632.87</v>
+        <v>104547.28</v>
+      </c>
+      <c r="N4" t="n">
+        <v>106246.22</v>
+      </c>
+      <c r="O4" t="n">
+        <v>104809.69</v>
+      </c>
+      <c r="P4" t="n">
+        <v>104500.7</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>135067.67</v>
+      </c>
+      <c r="R4" t="n">
+        <v>134913.96</v>
+      </c>
+      <c r="S4" t="n">
+        <v>134699.31</v>
+      </c>
+      <c r="T4" t="n">
+        <v>125871.82</v>
+      </c>
+      <c r="U4" t="n">
+        <v>96194.35000000001</v>
+      </c>
+      <c r="V4" t="n">
+        <v>95878.66</v>
+      </c>
+      <c r="W4" t="n">
+        <v>92290.57000000001</v>
+      </c>
+      <c r="X4" t="n">
+        <v>92772.71000000001</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>92371.71000000001</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>92598.99000000001</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>92521.77</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67262.34</v>
+        <v>67106.03999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>67392.53</v>
+        <v>67312.02</v>
       </c>
       <c r="D5" t="n">
-        <v>67222.49000000001</v>
+        <v>67458.92999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>67300.25999999999</v>
+        <v>67377.38</v>
       </c>
       <c r="F5" t="n">
-        <v>67136.75</v>
+        <v>86150.32000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>67127.03999999999</v>
+        <v>111822.76</v>
       </c>
       <c r="H5" t="n">
-        <v>67274.06</v>
+        <v>111556.6</v>
       </c>
       <c r="I5" t="n">
-        <v>67377.53999999999</v>
+        <v>111547.51</v>
       </c>
       <c r="J5" t="n">
-        <v>67292.75</v>
+        <v>153234.4</v>
       </c>
       <c r="K5" t="n">
-        <v>67167.56</v>
+        <v>153659.72</v>
       </c>
       <c r="L5" t="n">
-        <v>67101.05</v>
+        <v>153385.27</v>
       </c>
       <c r="M5" t="n">
-        <v>67106.03999999999</v>
+        <v>153575.23</v>
+      </c>
+      <c r="N5" t="n">
+        <v>179121.83</v>
+      </c>
+      <c r="O5" t="n">
+        <v>179363.78</v>
+      </c>
+      <c r="P5" t="n">
+        <v>179415.81</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>179176.73</v>
+      </c>
+      <c r="R5" t="n">
+        <v>196810.32</v>
+      </c>
+      <c r="S5" t="n">
+        <v>196452.48</v>
+      </c>
+      <c r="T5" t="n">
+        <v>206654.26</v>
+      </c>
+      <c r="U5" t="n">
+        <v>206369.37</v>
+      </c>
+      <c r="V5" t="n">
+        <v>205126.94</v>
+      </c>
+      <c r="W5" t="n">
+        <v>205412.59</v>
+      </c>
+      <c r="X5" t="n">
+        <v>145239.65</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>145418.56</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>116313.34</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>116282.86</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152915.14</v>
+        <v>152749.24</v>
       </c>
       <c r="C6" t="n">
-        <v>152779.73</v>
+        <v>153124.98</v>
       </c>
       <c r="D6" t="n">
-        <v>153426.78</v>
+        <v>152838.14</v>
       </c>
       <c r="E6" t="n">
-        <v>153234.85</v>
+        <v>153579.27</v>
       </c>
       <c r="F6" t="n">
-        <v>153751.36</v>
+        <v>152912.07</v>
       </c>
       <c r="G6" t="n">
-        <v>153227.64</v>
+        <v>153722.2</v>
       </c>
       <c r="H6" t="n">
-        <v>152807.32</v>
+        <v>153184.2</v>
       </c>
       <c r="I6" t="n">
-        <v>153650.04</v>
+        <v>153186.21</v>
       </c>
       <c r="J6" t="n">
-        <v>153390.68</v>
+        <v>153404.56</v>
       </c>
       <c r="K6" t="n">
-        <v>153018.23</v>
+        <v>153844.37</v>
       </c>
       <c r="L6" t="n">
-        <v>152764.43</v>
+        <v>153442.32</v>
       </c>
       <c r="M6" t="n">
-        <v>152749.24</v>
+        <v>153445.78</v>
+      </c>
+      <c r="N6" t="n">
+        <v>153418.58</v>
+      </c>
+      <c r="O6" t="n">
+        <v>152901.17</v>
+      </c>
+      <c r="P6" t="n">
+        <v>153010.52</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>152840.28</v>
+      </c>
+      <c r="R6" t="n">
+        <v>153368.56</v>
+      </c>
+      <c r="S6" t="n">
+        <v>153262.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>151681.44</v>
+      </c>
+      <c r="U6" t="n">
+        <v>153750.19</v>
+      </c>
+      <c r="V6" t="n">
+        <v>152931.26</v>
+      </c>
+      <c r="W6" t="n">
+        <v>152432.95</v>
+      </c>
+      <c r="X6" t="n">
+        <v>152301.99</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>152880.58</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>153252.3</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>152315.87</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>451910.52</v>
+        <v>451497.34</v>
       </c>
       <c r="C7" t="n">
-        <v>450369.4</v>
+        <v>450028.09</v>
       </c>
       <c r="D7" t="n">
-        <v>451686.34</v>
+        <v>449781.17</v>
       </c>
       <c r="E7" t="n">
-        <v>450848.27</v>
+        <v>451570.62</v>
       </c>
       <c r="F7" t="n">
-        <v>450112.12</v>
+        <v>450292.44</v>
       </c>
       <c r="G7" t="n">
-        <v>450726.63</v>
+        <v>451860.17</v>
       </c>
       <c r="H7" t="n">
-        <v>450941.83</v>
+        <v>451030.26</v>
       </c>
       <c r="I7" t="n">
-        <v>451544.39</v>
+        <v>450001.25</v>
       </c>
       <c r="J7" t="n">
-        <v>450872.53</v>
+        <v>449905.62</v>
       </c>
       <c r="K7" t="n">
-        <v>450861.03</v>
+        <v>450639.13</v>
       </c>
       <c r="L7" t="n">
-        <v>451023.95</v>
+        <v>450721.92</v>
       </c>
       <c r="M7" t="n">
-        <v>451497.34</v>
+        <v>450138.2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>450763.73</v>
+      </c>
+      <c r="O7" t="n">
+        <v>449969.89</v>
+      </c>
+      <c r="P7" t="n">
+        <v>450664.38</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>450055.97</v>
+      </c>
+      <c r="R7" t="n">
+        <v>450805.08</v>
+      </c>
+      <c r="S7" t="n">
+        <v>451565.99</v>
+      </c>
+      <c r="T7" t="n">
+        <v>445982.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>450709.06</v>
+      </c>
+      <c r="V7" t="n">
+        <v>449932.76</v>
+      </c>
+      <c r="W7" t="n">
+        <v>450253.69</v>
+      </c>
+      <c r="X7" t="n">
+        <v>449950.76</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>451238.53</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>450703.75</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>450843.9</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +1082,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15716.18</v>
+        <v>15702.27</v>
       </c>
       <c r="C8" t="n">
-        <v>15765.09</v>
+        <v>15761.59</v>
       </c>
       <c r="D8" t="n">
-        <v>15700.64</v>
+        <v>15775.65</v>
       </c>
       <c r="E8" t="n">
-        <v>15735.5</v>
+        <v>15739.47</v>
       </c>
       <c r="F8" t="n">
-        <v>15740.3</v>
+        <v>15740.98</v>
       </c>
       <c r="G8" t="n">
-        <v>15778.54</v>
+        <v>15676.66</v>
       </c>
       <c r="H8" t="n">
-        <v>15670.01</v>
+        <v>15689.82</v>
       </c>
       <c r="I8" t="n">
-        <v>15668.15</v>
+        <v>15665.18</v>
       </c>
       <c r="J8" t="n">
-        <v>15670.89</v>
+        <v>15728.83</v>
       </c>
       <c r="K8" t="n">
-        <v>15653.86</v>
+        <v>15676.64</v>
       </c>
       <c r="L8" t="n">
-        <v>15727.3</v>
+        <v>15777.84</v>
       </c>
       <c r="M8" t="n">
-        <v>15702.27</v>
+        <v>15714.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15784.4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>15787.56</v>
+      </c>
+      <c r="P8" t="n">
+        <v>15665.57</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>15754.3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>15657.67</v>
+      </c>
+      <c r="S8" t="n">
+        <v>15717.04</v>
+      </c>
+      <c r="T8" t="n">
+        <v>15485.65</v>
+      </c>
+      <c r="U8" t="n">
+        <v>15702.26</v>
+      </c>
+      <c r="V8" t="n">
+        <v>15729.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>15690.52</v>
+      </c>
+      <c r="X8" t="n">
+        <v>15643.36</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15673.86</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>15761.83</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15687.89</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +1167,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>162096.04</v>
+        <v>161043.36</v>
       </c>
       <c r="C9" t="n">
-        <v>163183.04</v>
+        <v>164849.55</v>
       </c>
       <c r="D9" t="n">
-        <v>161220.49</v>
+        <v>164839.04</v>
       </c>
       <c r="E9" t="n">
-        <v>159617.35</v>
+        <v>160205.26</v>
       </c>
       <c r="F9" t="n">
-        <v>160493.01</v>
+        <v>157581.31</v>
       </c>
       <c r="G9" t="n">
-        <v>158992.68</v>
+        <v>161197.98</v>
       </c>
       <c r="H9" t="n">
-        <v>158163.83</v>
+        <v>159638.99</v>
       </c>
       <c r="I9" t="n">
-        <v>162640.66</v>
+        <v>158132.36</v>
       </c>
       <c r="J9" t="n">
-        <v>164242.53</v>
+        <v>158039.67</v>
       </c>
       <c r="K9" t="n">
-        <v>161293.48</v>
+        <v>160813.68</v>
       </c>
       <c r="L9" t="n">
-        <v>162723.47</v>
+        <v>160167.14</v>
       </c>
       <c r="M9" t="n">
-        <v>161043.36</v>
+        <v>162621.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>163281.58</v>
+      </c>
+      <c r="O9" t="n">
+        <v>160581.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>161907.49</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>159391.03</v>
+      </c>
+      <c r="R9" t="n">
+        <v>163006.04</v>
+      </c>
+      <c r="S9" t="n">
+        <v>162652.21</v>
+      </c>
+      <c r="T9" t="n">
+        <v>155803.82</v>
+      </c>
+      <c r="U9" t="n">
+        <v>158570.26</v>
+      </c>
+      <c r="V9" t="n">
+        <v>164271.35</v>
+      </c>
+      <c r="W9" t="n">
+        <v>163382.11</v>
+      </c>
+      <c r="X9" t="n">
+        <v>163160.74</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>163681.38</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>158000.47</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>159051.76</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +1252,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13115.3</v>
+        <v>1552.83</v>
       </c>
       <c r="C10" t="n">
-        <v>13098.67</v>
+        <v>1560.85</v>
       </c>
       <c r="D10" t="n">
-        <v>13055.46</v>
+        <v>1555.52</v>
       </c>
       <c r="E10" t="n">
-        <v>13127.12</v>
+        <v>1557.11</v>
       </c>
       <c r="F10" t="n">
-        <v>13141.44</v>
+        <v>1551.9</v>
       </c>
       <c r="G10" t="n">
-        <v>13175.6</v>
+        <v>1561.85</v>
       </c>
       <c r="H10" t="n">
-        <v>13185.93</v>
+        <v>1551.11</v>
       </c>
       <c r="I10" t="n">
-        <v>13119.97</v>
+        <v>1562.31</v>
       </c>
       <c r="J10" t="n">
-        <v>13093.53</v>
+        <v>1551.5</v>
       </c>
       <c r="K10" t="n">
-        <v>1561.31</v>
+        <v>1558.68</v>
       </c>
       <c r="L10" t="n">
-        <v>1554.71</v>
+        <v>7764.35</v>
       </c>
       <c r="M10" t="n">
-        <v>1552.83</v>
+        <v>7801.32</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7801.23</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2663.86</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2502.05</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2493.42</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2508.3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2503.68</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2470.71</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2494.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2493.75</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2505.24</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2503.44</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2504.81</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2506.96</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2579.75</v>
       </c>
     </row>
     <row r="11">
@@ -889,40 +1337,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97946.41</v>
+        <v>251009.54</v>
       </c>
       <c r="C11" t="n">
-        <v>149791.54</v>
+        <v>249724.87</v>
       </c>
       <c r="D11" t="n">
-        <v>185376.04</v>
+        <v>290083.44</v>
       </c>
       <c r="E11" t="n">
-        <v>184566.37</v>
+        <v>246922.02</v>
       </c>
       <c r="F11" t="n">
-        <v>184790.43</v>
+        <v>246419.46</v>
       </c>
       <c r="G11" t="n">
-        <v>184712.68</v>
+        <v>194823.24</v>
       </c>
       <c r="H11" t="n">
-        <v>185099.52</v>
+        <v>152719.7</v>
       </c>
       <c r="I11" t="n">
-        <v>184373.5</v>
+        <v>111955.55</v>
       </c>
       <c r="J11" t="n">
-        <v>184624.84</v>
+        <v>111525.38</v>
       </c>
       <c r="K11" t="n">
-        <v>185195.59</v>
+        <v>111762.28</v>
       </c>
       <c r="L11" t="n">
-        <v>184835.5</v>
+        <v>112041.07</v>
       </c>
       <c r="M11" t="n">
-        <v>251009.54</v>
+        <v>113029.51</v>
+      </c>
+      <c r="N11" t="n">
+        <v>111100.9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>133294.42</v>
+      </c>
+      <c r="P11" t="n">
+        <v>133319.67</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>157027.75</v>
+      </c>
+      <c r="R11" t="n">
+        <v>156322.47</v>
+      </c>
+      <c r="S11" t="n">
+        <v>156394.55</v>
+      </c>
+      <c r="T11" t="n">
+        <v>148981.51</v>
+      </c>
+      <c r="U11" t="n">
+        <v>149998.04</v>
+      </c>
+      <c r="V11" t="n">
+        <v>150594.86</v>
+      </c>
+      <c r="W11" t="n">
+        <v>125386.52</v>
+      </c>
+      <c r="X11" t="n">
+        <v>148163.93</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>147484.83</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>47354</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>46785.68</v>
       </c>
     </row>
     <row r="12">
@@ -932,40 +1422,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>388942.39</v>
+        <v>85760.69</v>
       </c>
       <c r="C12" t="n">
-        <v>286403.95</v>
+        <v>85640.48</v>
       </c>
       <c r="D12" t="n">
-        <v>260617.92</v>
+        <v>86255.50999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>213296.29</v>
+        <v>87792.07000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>182317.47</v>
+        <v>85074.7</v>
       </c>
       <c r="G12" t="n">
-        <v>155179.67</v>
+        <v>87334.21000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>111144.92</v>
+        <v>83210.36</v>
       </c>
       <c r="I12" t="n">
-        <v>93134.85000000001</v>
+        <v>92975.02</v>
       </c>
       <c r="J12" t="n">
-        <v>84686.77</v>
+        <v>102533.77</v>
       </c>
       <c r="K12" t="n">
-        <v>83364.33</v>
+        <v>99618.23</v>
       </c>
       <c r="L12" t="n">
-        <v>85979.03</v>
+        <v>99417.19</v>
       </c>
       <c r="M12" t="n">
-        <v>85760.69</v>
+        <v>100951.55</v>
+      </c>
+      <c r="N12" t="n">
+        <v>118062.86</v>
+      </c>
+      <c r="O12" t="n">
+        <v>118578.45</v>
+      </c>
+      <c r="P12" t="n">
+        <v>119670.15</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>137600.62</v>
+      </c>
+      <c r="R12" t="n">
+        <v>134799.61</v>
+      </c>
+      <c r="S12" t="n">
+        <v>134087.44</v>
+      </c>
+      <c r="T12" t="n">
+        <v>134101.09</v>
+      </c>
+      <c r="U12" t="n">
+        <v>137480.43</v>
+      </c>
+      <c r="V12" t="n">
+        <v>133874.95</v>
+      </c>
+      <c r="W12" t="n">
+        <v>124298.41</v>
+      </c>
+      <c r="X12" t="n">
+        <v>98293.52</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>98319.42999999999</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>81491.25</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>52380.66</v>
       </c>
     </row>
     <row r="13">
@@ -975,38 +1507,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1393.15</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>1372.66</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1423.59</v>
+      </c>
       <c r="D13" t="n">
-        <v>1269.69</v>
+        <v>1442.99</v>
       </c>
       <c r="E13" t="n">
-        <v>1359.47</v>
+        <v>1344.73</v>
       </c>
       <c r="F13" t="n">
-        <v>1381.01</v>
+        <v>1431.73</v>
       </c>
       <c r="G13" t="n">
-        <v>1381.89</v>
+        <v>1539.82</v>
       </c>
       <c r="H13" t="n">
-        <v>1319.75</v>
+        <v>1571.64</v>
       </c>
       <c r="I13" t="n">
-        <v>1287.85</v>
+        <v>1514.28</v>
       </c>
       <c r="J13" t="n">
-        <v>1239.09</v>
+        <v>1575.98</v>
       </c>
       <c r="K13" t="n">
-        <v>1237.17</v>
+        <v>1640.49</v>
       </c>
       <c r="L13" t="n">
-        <v>1365.48</v>
+        <v>1645.52</v>
       </c>
       <c r="M13" t="n">
-        <v>1372.66</v>
+        <v>1501.87</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1378.81</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1394.39</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1349.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1388.17</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1359.52</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1310.91</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1325.82</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1313.56</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1447.21</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1418.26</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1425.85</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1423.39</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1567.75</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1564.17</v>
       </c>
     </row>
     <row r="14">
@@ -1018,7 +1594,9 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
@@ -1049,6 +1627,48 @@
       <c r="M14" t="n">
         <v>0</v>
       </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1057,38 +1677,82 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>175020.68</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>172952.33</v>
+      </c>
+      <c r="C15" t="n">
+        <v>172138.23</v>
+      </c>
       <c r="D15" t="n">
-        <v>173818.07</v>
+        <v>174182.22</v>
       </c>
       <c r="E15" t="n">
-        <v>171889.31</v>
+        <v>173442.61</v>
       </c>
       <c r="F15" t="n">
-        <v>171372.2</v>
+        <v>172973.38</v>
       </c>
       <c r="G15" t="n">
-        <v>172242.59</v>
+        <v>172079.59</v>
       </c>
       <c r="H15" t="n">
-        <v>172208.35</v>
+        <v>173929.34</v>
       </c>
       <c r="I15" t="n">
-        <v>173026.74</v>
+        <v>171771.9</v>
       </c>
       <c r="J15" t="n">
-        <v>171583.65</v>
+        <v>171562.3</v>
       </c>
       <c r="K15" t="n">
-        <v>172530.57</v>
+        <v>173581.51</v>
       </c>
       <c r="L15" t="n">
-        <v>173338.01</v>
+        <v>170930.07</v>
       </c>
       <c r="M15" t="n">
-        <v>172952.33</v>
+        <v>173485.28</v>
+      </c>
+      <c r="N15" t="n">
+        <v>173553.22</v>
+      </c>
+      <c r="O15" t="n">
+        <v>171521.16</v>
+      </c>
+      <c r="P15" t="n">
+        <v>171811.54</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>172339.87</v>
+      </c>
+      <c r="R15" t="n">
+        <v>172160.49</v>
+      </c>
+      <c r="S15" t="n">
+        <v>172863.47</v>
+      </c>
+      <c r="T15" t="n">
+        <v>173722.06</v>
+      </c>
+      <c r="U15" t="n">
+        <v>174034.16</v>
+      </c>
+      <c r="V15" t="n">
+        <v>172396.6</v>
+      </c>
+      <c r="W15" t="n">
+        <v>173748.07</v>
+      </c>
+      <c r="X15" t="n">
+        <v>171424.71</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>173437.45</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>172114.34</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>172960.88</v>
       </c>
     </row>
     <row r="16">
@@ -1098,39 +1762,45 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>199456.88</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>192612.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>192537.69</v>
+      </c>
       <c r="D16" t="n">
-        <v>199426.8</v>
+        <v>193665.82</v>
       </c>
       <c r="E16" t="n">
-        <v>198951.27</v>
+        <v>193109.18</v>
       </c>
       <c r="F16" t="n">
-        <v>209957.1</v>
+        <v>110437.38</v>
       </c>
       <c r="G16" t="n">
-        <v>209204.88</v>
+        <v>34140.23</v>
       </c>
       <c r="H16" t="n">
-        <v>209504.19</v>
-      </c>
-      <c r="I16" t="n">
-        <v>209521.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>199729.47</v>
-      </c>
-      <c r="K16" t="n">
-        <v>200121.95</v>
-      </c>
-      <c r="L16" t="n">
-        <v>192457.95</v>
-      </c>
-      <c r="M16" t="n">
-        <v>192612.6</v>
-      </c>
+        <v>16860.41</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1139,39 +1809,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>200689.13</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>187833.95</v>
+      </c>
+      <c r="C17" t="n">
+        <v>187475.61</v>
+      </c>
       <c r="D17" t="n">
-        <v>199964.65</v>
+        <v>187265.59</v>
       </c>
       <c r="E17" t="n">
-        <v>199846.18</v>
+        <v>177014.65</v>
       </c>
       <c r="F17" t="n">
-        <v>200671.7</v>
+        <v>95487.60000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>187306.51</v>
-      </c>
-      <c r="H17" t="n">
-        <v>187616.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>188079.83</v>
-      </c>
-      <c r="J17" t="n">
-        <v>187808.01</v>
-      </c>
-      <c r="K17" t="n">
-        <v>188298.83</v>
-      </c>
-      <c r="L17" t="n">
-        <v>187921.33</v>
-      </c>
-      <c r="M17" t="n">
-        <v>187833.95</v>
-      </c>
+        <v>18803.18</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1180,38 +1854,82 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>320077.42</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>366900.66</v>
+      </c>
+      <c r="C18" t="n">
+        <v>367689.6</v>
+      </c>
       <c r="D18" t="n">
-        <v>330964.96</v>
+        <v>356268.61</v>
       </c>
       <c r="E18" t="n">
-        <v>371524.59</v>
+        <v>357548.55</v>
       </c>
       <c r="F18" t="n">
-        <v>377381.14</v>
+        <v>366845.83</v>
       </c>
       <c r="G18" t="n">
-        <v>379187.36</v>
+        <v>386065.75</v>
       </c>
       <c r="H18" t="n">
-        <v>380712.26</v>
+        <v>384668.14</v>
       </c>
       <c r="I18" t="n">
-        <v>386014.42</v>
+        <v>414881.62</v>
       </c>
       <c r="J18" t="n">
-        <v>387721.19</v>
+        <v>436662.29</v>
       </c>
       <c r="K18" t="n">
-        <v>387716.17</v>
+        <v>465343.45</v>
       </c>
       <c r="L18" t="n">
-        <v>377643.99</v>
+        <v>489917.38</v>
       </c>
       <c r="M18" t="n">
-        <v>366900.66</v>
+        <v>584681.6</v>
+      </c>
+      <c r="N18" t="n">
+        <v>840378.74</v>
+      </c>
+      <c r="O18" t="n">
+        <v>942242.87</v>
+      </c>
+      <c r="P18" t="n">
+        <v>963517.26</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1188396.69</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1206950.31</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1156720.84</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1162086.39</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1129646.43</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1164635.98</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1180203.62</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1196670.07</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1096406.84</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1116433.33</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1115679.91</v>
       </c>
     </row>
     <row r="19">
@@ -1221,40 +1939,82 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>419711.1</v>
+        <v>850595.28</v>
       </c>
       <c r="C19" t="n">
-        <v>438745.35</v>
+        <v>759707.61</v>
       </c>
       <c r="D19" t="n">
-        <v>405738.12</v>
+        <v>761343.37</v>
       </c>
       <c r="E19" t="n">
-        <v>408018.18</v>
+        <v>681321.12</v>
       </c>
       <c r="F19" t="n">
-        <v>413159.85</v>
+        <v>691170.75</v>
       </c>
       <c r="G19" t="n">
-        <v>511698.22</v>
+        <v>658544.04</v>
       </c>
       <c r="H19" t="n">
-        <v>780492.61</v>
+        <v>658329.42</v>
       </c>
       <c r="I19" t="n">
-        <v>879200.77</v>
+        <v>698623.97</v>
       </c>
       <c r="J19" t="n">
-        <v>880376.09</v>
+        <v>607378.12</v>
       </c>
       <c r="K19" t="n">
-        <v>879903.24</v>
+        <v>608291.17</v>
       </c>
       <c r="L19" t="n">
-        <v>848982.73</v>
+        <v>662228.5600000001</v>
       </c>
       <c r="M19" t="n">
-        <v>850595.28</v>
+        <v>711994.15</v>
+      </c>
+      <c r="N19" t="n">
+        <v>743169.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>790786.72</v>
+      </c>
+      <c r="P19" t="n">
+        <v>820561.21</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>850374.27</v>
+      </c>
+      <c r="R19" t="n">
+        <v>880255.48</v>
+      </c>
+      <c r="S19" t="n">
+        <v>818541.1800000001</v>
+      </c>
+      <c r="T19" t="n">
+        <v>823725.6800000001</v>
+      </c>
+      <c r="U19" t="n">
+        <v>821736.39</v>
+      </c>
+      <c r="V19" t="n">
+        <v>777087.0699999999</v>
+      </c>
+      <c r="W19" t="n">
+        <v>801261.37</v>
+      </c>
+      <c r="X19" t="n">
+        <v>818231.6800000001</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>786620.9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>808845.67</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>797356.58</v>
       </c>
     </row>
     <row r="20">
@@ -1264,40 +2024,82 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>23193.57</v>
+        <v>23206.16</v>
       </c>
       <c r="C20" t="n">
-        <v>23136.87</v>
+        <v>23047.33</v>
       </c>
       <c r="D20" t="n">
-        <v>23188.73</v>
+        <v>23120.36</v>
       </c>
       <c r="E20" t="n">
-        <v>23126.45</v>
+        <v>23098</v>
       </c>
       <c r="F20" t="n">
-        <v>23061.37</v>
+        <v>23189.13</v>
       </c>
       <c r="G20" t="n">
-        <v>23234.57</v>
+        <v>23125.52</v>
       </c>
       <c r="H20" t="n">
-        <v>23120.6</v>
+        <v>23202.63</v>
       </c>
       <c r="I20" t="n">
-        <v>23098.04</v>
+        <v>23060.38</v>
       </c>
       <c r="J20" t="n">
-        <v>23138.1</v>
+        <v>22947.66</v>
       </c>
       <c r="K20" t="n">
-        <v>23215.9</v>
+        <v>23259.94</v>
       </c>
       <c r="L20" t="n">
-        <v>23001.44</v>
+        <v>23202.72</v>
       </c>
       <c r="M20" t="n">
-        <v>23206.16</v>
+        <v>23058.37</v>
+      </c>
+      <c r="N20" t="n">
+        <v>23156.82</v>
+      </c>
+      <c r="O20" t="n">
+        <v>23162.65</v>
+      </c>
+      <c r="P20" t="n">
+        <v>23119.24</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>23097.97</v>
+      </c>
+      <c r="R20" t="n">
+        <v>22936.96</v>
+      </c>
+      <c r="S20" t="n">
+        <v>22962.86</v>
+      </c>
+      <c r="T20" t="n">
+        <v>23262.01</v>
+      </c>
+      <c r="U20" t="n">
+        <v>23129.3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>23255.87</v>
+      </c>
+      <c r="W20" t="n">
+        <v>22968.53</v>
+      </c>
+      <c r="X20" t="n">
+        <v>23295.06</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>22998.35</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>23281.39</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>23194.07</v>
       </c>
     </row>
     <row r="21">
@@ -1307,40 +2109,82 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5395.58</v>
+        <v>5396.95</v>
       </c>
       <c r="C21" t="n">
-        <v>5402.1</v>
+        <v>5411.69</v>
       </c>
       <c r="D21" t="n">
-        <v>5412.44</v>
+        <v>5394.45</v>
       </c>
       <c r="E21" t="n">
-        <v>5399.85</v>
+        <v>5424.46</v>
       </c>
       <c r="F21" t="n">
-        <v>5368.16</v>
+        <v>5410.93</v>
       </c>
       <c r="G21" t="n">
-        <v>5422.01</v>
+        <v>5392.39</v>
       </c>
       <c r="H21" t="n">
-        <v>5420.68</v>
+        <v>5390.58</v>
       </c>
       <c r="I21" t="n">
-        <v>5420.04</v>
+        <v>5432.76</v>
       </c>
       <c r="J21" t="n">
-        <v>5394.37</v>
+        <v>5442.42</v>
       </c>
       <c r="K21" t="n">
-        <v>5418.63</v>
+        <v>5436.47</v>
       </c>
       <c r="L21" t="n">
-        <v>5396.28</v>
+        <v>5363.17</v>
       </c>
       <c r="M21" t="n">
-        <v>5396.95</v>
+        <v>5407.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5402.02</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5391.49</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5416.35</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5387.82</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5438.9</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5431.89</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5388.81</v>
+      </c>
+      <c r="U21" t="n">
+        <v>5432.26</v>
+      </c>
+      <c r="V21" t="n">
+        <v>5410.68</v>
+      </c>
+      <c r="W21" t="n">
+        <v>5390.87</v>
+      </c>
+      <c r="X21" t="n">
+        <v>5369.14</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>5402.05</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>5449.51</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>5361.2</v>
       </c>
     </row>
     <row r="22">
@@ -1350,40 +2194,82 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119179.1</v>
+        <v>84338.39</v>
       </c>
       <c r="C22" t="n">
-        <v>119893.54</v>
+        <v>74867</v>
       </c>
       <c r="D22" t="n">
-        <v>119465.03</v>
+        <v>74342.02</v>
       </c>
       <c r="E22" t="n">
-        <v>119122.59</v>
+        <v>69580.84</v>
       </c>
       <c r="F22" t="n">
-        <v>119402.5</v>
+        <v>69372.39999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>114146.7</v>
+        <v>64784.99</v>
       </c>
       <c r="H22" t="n">
-        <v>114939.95</v>
+        <v>64430.23</v>
       </c>
       <c r="I22" t="n">
-        <v>99836.45</v>
+        <v>64656.67</v>
       </c>
       <c r="J22" t="n">
-        <v>94390.19</v>
+        <v>64472.71</v>
       </c>
       <c r="K22" t="n">
-        <v>94279.60000000001</v>
+        <v>64519.3</v>
       </c>
       <c r="L22" t="n">
-        <v>84549.67999999999</v>
+        <v>64150.67</v>
       </c>
       <c r="M22" t="n">
-        <v>84338.39</v>
+        <v>64904.03</v>
+      </c>
+      <c r="N22" t="n">
+        <v>64518.16</v>
+      </c>
+      <c r="O22" t="n">
+        <v>64708.32</v>
+      </c>
+      <c r="P22" t="n">
+        <v>64281.87</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>64234.93</v>
+      </c>
+      <c r="R22" t="n">
+        <v>64506.47</v>
+      </c>
+      <c r="S22" t="n">
+        <v>94370.67999999999</v>
+      </c>
+      <c r="T22" t="n">
+        <v>94451.78</v>
+      </c>
+      <c r="U22" t="n">
+        <v>94497.64</v>
+      </c>
+      <c r="V22" t="n">
+        <v>94799.14</v>
+      </c>
+      <c r="W22" t="n">
+        <v>114747.56</v>
+      </c>
+      <c r="X22" t="n">
+        <v>114638.09</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>114172.07</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>114094.49</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>99852.02</v>
       </c>
     </row>
     <row r="23">
@@ -1393,40 +2279,82 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>226105.8</v>
+        <v>185819.75</v>
       </c>
       <c r="C23" t="n">
-        <v>246902.99</v>
+        <v>186461.99</v>
       </c>
       <c r="D23" t="n">
-        <v>196266.94</v>
+        <v>185753.45</v>
       </c>
       <c r="E23" t="n">
-        <v>196904.39</v>
+        <v>196045.32</v>
       </c>
       <c r="F23" t="n">
-        <v>195731.58</v>
+        <v>196914.55</v>
       </c>
       <c r="G23" t="n">
-        <v>195681.88</v>
+        <v>197185.13</v>
       </c>
       <c r="H23" t="n">
-        <v>196912.18</v>
+        <v>195564.19</v>
       </c>
       <c r="I23" t="n">
-        <v>196171.73</v>
+        <v>196524.63</v>
       </c>
       <c r="J23" t="n">
-        <v>196613.53</v>
+        <v>195997.33</v>
       </c>
       <c r="K23" t="n">
-        <v>197020.51</v>
+        <v>196532.31</v>
       </c>
       <c r="L23" t="n">
-        <v>186774.61</v>
+        <v>197160.49</v>
       </c>
       <c r="M23" t="n">
-        <v>185819.75</v>
+        <v>205543.46</v>
+      </c>
+      <c r="N23" t="n">
+        <v>205945.1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>206966.15</v>
+      </c>
+      <c r="P23" t="n">
+        <v>216515.04</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>226297.48</v>
+      </c>
+      <c r="R23" t="n">
+        <v>226754.27</v>
+      </c>
+      <c r="S23" t="n">
+        <v>226431.09</v>
+      </c>
+      <c r="T23" t="n">
+        <v>225974.29</v>
+      </c>
+      <c r="U23" t="n">
+        <v>227052.2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>226764.09</v>
+      </c>
+      <c r="W23" t="n">
+        <v>240649.45</v>
+      </c>
+      <c r="X23" t="n">
+        <v>241999.85</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>241740.25</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>241803.79</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>241753.69</v>
       </c>
     </row>
     <row r="24">
@@ -1436,40 +2364,82 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>42422.76</v>
+        <v>61498.46</v>
       </c>
       <c r="C24" t="n">
-        <v>44342.64</v>
+        <v>61645.71</v>
       </c>
       <c r="D24" t="n">
-        <v>57030.49</v>
+        <v>59762.79</v>
       </c>
       <c r="E24" t="n">
-        <v>59647.01</v>
+        <v>59172.29</v>
       </c>
       <c r="F24" t="n">
-        <v>59109.95</v>
+        <v>60531.74</v>
       </c>
       <c r="G24" t="n">
-        <v>59217.35</v>
+        <v>63942.95</v>
       </c>
       <c r="H24" t="n">
-        <v>70365.45</v>
+        <v>65840.58</v>
       </c>
       <c r="I24" t="n">
-        <v>70586.03</v>
+        <v>67879.31</v>
       </c>
       <c r="J24" t="n">
-        <v>70148.05</v>
+        <v>69116.96000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>70133.53999999999</v>
+        <v>72797.28999999999</v>
       </c>
       <c r="L24" t="n">
-        <v>69888.99000000001</v>
+        <v>72812.84</v>
       </c>
       <c r="M24" t="n">
-        <v>61498.46</v>
+        <v>84388.7</v>
+      </c>
+      <c r="N24" t="n">
+        <v>84889.27</v>
+      </c>
+      <c r="O24" t="n">
+        <v>86648.96000000001</v>
+      </c>
+      <c r="P24" t="n">
+        <v>89030.62</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>88963.67999999999</v>
+      </c>
+      <c r="R24" t="n">
+        <v>88924.19</v>
+      </c>
+      <c r="S24" t="n">
+        <v>88843.53</v>
+      </c>
+      <c r="T24" t="n">
+        <v>76940.61</v>
+      </c>
+      <c r="U24" t="n">
+        <v>66585.46000000001</v>
+      </c>
+      <c r="V24" t="n">
+        <v>65328.21</v>
+      </c>
+      <c r="W24" t="n">
+        <v>64088.68</v>
+      </c>
+      <c r="X24" t="n">
+        <v>66437.02</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>59682.29</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>65395.05</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>65621.67</v>
       </c>
     </row>
     <row r="25">
@@ -1479,41 +2449,77 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8769.280000000001</v>
+        <v>9754.639999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>8758.74</v>
+        <v>9586.120000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>9752.32</v>
+        <v>9568.92</v>
       </c>
       <c r="E25" t="n">
-        <v>9781.76</v>
+        <v>9570.99</v>
       </c>
       <c r="F25" t="n">
-        <v>9794.190000000001</v>
+        <v>9552.07</v>
       </c>
       <c r="G25" t="n">
-        <v>9763.450000000001</v>
+        <v>9542.459999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>9761.200000000001</v>
+        <v>9586.73</v>
       </c>
       <c r="I25" t="n">
-        <v>9768.98</v>
+        <v>9541.15</v>
       </c>
       <c r="J25" t="n">
-        <v>9785.870000000001</v>
+        <v>9566.110000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>9786.74</v>
+        <v>9558.120000000001</v>
       </c>
       <c r="L25" t="n">
-        <v>9789.690000000001</v>
+        <v>9576.65</v>
       </c>
       <c r="M25" t="n">
-        <v>9754.639999999999</v>
-      </c>
+        <v>9566.91</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9563.35</v>
+      </c>
+      <c r="O25" t="n">
+        <v>9543.629999999999</v>
+      </c>
+      <c r="P25" t="n">
+        <v>9559.73</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>9568.290000000001</v>
+      </c>
+      <c r="R25" t="n">
+        <v>9562.9</v>
+      </c>
+      <c r="S25" t="n">
+        <v>9570.469999999999</v>
+      </c>
+      <c r="T25" t="n">
+        <v>9444.75</v>
+      </c>
+      <c r="U25" t="n">
+        <v>9561.209999999999</v>
+      </c>
+      <c r="V25" t="n">
+        <v>9543.370000000001</v>
+      </c>
+      <c r="W25" t="n">
+        <v>9562.23</v>
+      </c>
+      <c r="X25" t="n">
+        <v>9023.719999999999</v>
+      </c>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1522,40 +2528,82 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41477.86</v>
+        <v>20113.14</v>
       </c>
       <c r="C26" t="n">
-        <v>41486.82</v>
+        <v>20136.62</v>
       </c>
       <c r="D26" t="n">
-        <v>41318.02</v>
+        <v>20124.19</v>
       </c>
       <c r="E26" t="n">
-        <v>41544.99</v>
+        <v>20103.77</v>
       </c>
       <c r="F26" t="n">
-        <v>41402.58</v>
+        <v>20120.02</v>
       </c>
       <c r="G26" t="n">
-        <v>41173.75</v>
+        <v>20001.62</v>
       </c>
       <c r="H26" t="n">
-        <v>41434.68</v>
+        <v>19913.16</v>
       </c>
       <c r="I26" t="n">
-        <v>41553.14</v>
+        <v>20096.59</v>
       </c>
       <c r="J26" t="n">
-        <v>19973.89</v>
+        <v>20060.67</v>
       </c>
       <c r="K26" t="n">
-        <v>19867.93</v>
+        <v>20226.92</v>
       </c>
       <c r="L26" t="n">
-        <v>20055.16</v>
+        <v>40067.89</v>
       </c>
       <c r="M26" t="n">
-        <v>20113.14</v>
+        <v>40131.54</v>
+      </c>
+      <c r="N26" t="n">
+        <v>40034.41</v>
+      </c>
+      <c r="O26" t="n">
+        <v>39796.45</v>
+      </c>
+      <c r="P26" t="n">
+        <v>40093.75</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>39732.31</v>
+      </c>
+      <c r="R26" t="n">
+        <v>40056.67</v>
+      </c>
+      <c r="S26" t="n">
+        <v>68351.36</v>
+      </c>
+      <c r="T26" t="n">
+        <v>80177.19</v>
+      </c>
+      <c r="U26" t="n">
+        <v>76094.74000000001</v>
+      </c>
+      <c r="V26" t="n">
+        <v>79914.03</v>
+      </c>
+      <c r="W26" t="n">
+        <v>79429.14999999999</v>
+      </c>
+      <c r="X26" t="n">
+        <v>79789.41</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>79927.28999999999</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>79584.28999999999</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>79698.35000000001</v>
       </c>
     </row>
     <row r="27">
@@ -1565,40 +2613,72 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8697.51</v>
+        <v>8886.120000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>8822.65</v>
+        <v>8831.110000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>8867.9</v>
+        <v>8688.549999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>8860.33</v>
+        <v>8905.360000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>8710.120000000001</v>
+        <v>8603.879999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>8735.32</v>
+        <v>8610.360000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>8906.1</v>
+        <v>8928.49</v>
       </c>
       <c r="I27" t="n">
-        <v>8692.700000000001</v>
+        <v>8895.950000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>8723.860000000001</v>
+        <v>8930.700000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>8744.049999999999</v>
+        <v>8956.82</v>
       </c>
       <c r="L27" t="n">
-        <v>8791.92</v>
+        <v>8938.68</v>
       </c>
       <c r="M27" t="n">
-        <v>8886.120000000001</v>
+        <v>8779.17</v>
+      </c>
+      <c r="N27" t="n">
+        <v>8852.1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>8919.32</v>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="n">
+        <v>25051.63</v>
+      </c>
+      <c r="V27" t="n">
+        <v>24987.91</v>
+      </c>
+      <c r="W27" t="n">
+        <v>25102.6</v>
+      </c>
+      <c r="X27" t="n">
+        <v>25070.47</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>24962.24</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>25136.75</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>25011.24</v>
       </c>
     </row>
     <row r="28">
@@ -1608,40 +2688,82 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38466.38</v>
+        <v>35176.26</v>
       </c>
       <c r="C28" t="n">
-        <v>38601.49</v>
+        <v>35087.53</v>
       </c>
       <c r="D28" t="n">
-        <v>35094.52</v>
+        <v>34974.71</v>
       </c>
       <c r="E28" t="n">
-        <v>35112.84</v>
+        <v>21352.7</v>
       </c>
       <c r="F28" t="n">
-        <v>35122.35</v>
+        <v>21371.51</v>
       </c>
       <c r="G28" t="n">
-        <v>35009.68</v>
+        <v>7719.34</v>
       </c>
       <c r="H28" t="n">
-        <v>35062.21</v>
+        <v>7559.1</v>
       </c>
       <c r="I28" t="n">
-        <v>35143.82</v>
+        <v>7547.27</v>
       </c>
       <c r="J28" t="n">
-        <v>35095.41</v>
+        <v>7588.48</v>
       </c>
       <c r="K28" t="n">
-        <v>35085.2</v>
+        <v>7547.52</v>
       </c>
       <c r="L28" t="n">
-        <v>35104.16</v>
+        <v>7592.32</v>
       </c>
       <c r="M28" t="n">
-        <v>35176.26</v>
+        <v>7641.57</v>
+      </c>
+      <c r="N28" t="n">
+        <v>7738.26</v>
+      </c>
+      <c r="O28" t="n">
+        <v>7533.03</v>
+      </c>
+      <c r="P28" t="n">
+        <v>7575.99</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>7777.06</v>
+      </c>
+      <c r="R28" t="n">
+        <v>30785.98</v>
+      </c>
+      <c r="S28" t="n">
+        <v>30826.24</v>
+      </c>
+      <c r="T28" t="n">
+        <v>30784</v>
+      </c>
+      <c r="U28" t="n">
+        <v>30724.37</v>
+      </c>
+      <c r="V28" t="n">
+        <v>30740.22</v>
+      </c>
+      <c r="W28" t="n">
+        <v>35846.76</v>
+      </c>
+      <c r="X28" t="n">
+        <v>35661.53</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>35866.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>35926.52</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>35666.6</v>
       </c>
     </row>
     <row r="29">
@@ -1651,38 +2773,82 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>134399.26</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
+        <v>134216.31</v>
+      </c>
+      <c r="C29" t="n">
+        <v>134665.32</v>
+      </c>
       <c r="D29" t="n">
-        <v>134027.72</v>
+        <v>134226.71</v>
       </c>
       <c r="E29" t="n">
-        <v>134339.91</v>
+        <v>133985.43</v>
       </c>
       <c r="F29" t="n">
-        <v>134358.34</v>
+        <v>133879.3</v>
       </c>
       <c r="G29" t="n">
-        <v>134631.68</v>
+        <v>134646.84</v>
       </c>
       <c r="H29" t="n">
-        <v>134266.8</v>
+        <v>133911.67</v>
       </c>
       <c r="I29" t="n">
-        <v>134618.02</v>
+        <v>133987</v>
       </c>
       <c r="J29" t="n">
-        <v>133990.19</v>
+        <v>134033.81</v>
       </c>
       <c r="K29" t="n">
-        <v>134526.12</v>
+        <v>133814.19</v>
       </c>
       <c r="L29" t="n">
-        <v>134583.21</v>
+        <v>134323.39</v>
       </c>
       <c r="M29" t="n">
-        <v>134216.31</v>
+        <v>133816.14</v>
+      </c>
+      <c r="N29" t="n">
+        <v>134345.62</v>
+      </c>
+      <c r="O29" t="n">
+        <v>134101.89</v>
+      </c>
+      <c r="P29" t="n">
+        <v>134512.71</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>134418.35</v>
+      </c>
+      <c r="R29" t="n">
+        <v>134254.34</v>
+      </c>
+      <c r="S29" t="n">
+        <v>134620.03</v>
+      </c>
+      <c r="T29" t="n">
+        <v>134182.05</v>
+      </c>
+      <c r="U29" t="n">
+        <v>133998.11</v>
+      </c>
+      <c r="V29" t="n">
+        <v>134854.86</v>
+      </c>
+      <c r="W29" t="n">
+        <v>159173.23</v>
+      </c>
+      <c r="X29" t="n">
+        <v>178885.1</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>178556.46</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>205228.51</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>205189.38</v>
       </c>
     </row>
     <row r="30">
@@ -1692,40 +2858,82 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>141478.88</v>
+        <v>142074.33</v>
       </c>
       <c r="C30" t="n">
-        <v>141372.46</v>
+        <v>141741.31</v>
       </c>
       <c r="D30" t="n">
-        <v>141566.69</v>
+        <v>141036.06</v>
       </c>
       <c r="E30" t="n">
-        <v>141075.15</v>
+        <v>141277.47</v>
       </c>
       <c r="F30" t="n">
-        <v>141222.28</v>
+        <v>141511.55</v>
       </c>
       <c r="G30" t="n">
-        <v>141552.45</v>
+        <v>142048.13</v>
       </c>
       <c r="H30" t="n">
-        <v>141659.09</v>
+        <v>141992.63</v>
       </c>
       <c r="I30" t="n">
-        <v>141169.84</v>
+        <v>141497.94</v>
       </c>
       <c r="J30" t="n">
-        <v>142067.72</v>
+        <v>141891.96</v>
       </c>
       <c r="K30" t="n">
-        <v>141324.71</v>
+        <v>141741.8</v>
       </c>
       <c r="L30" t="n">
-        <v>141793.32</v>
+        <v>141746.04</v>
       </c>
       <c r="M30" t="n">
-        <v>142074.33</v>
+        <v>141507.51</v>
+      </c>
+      <c r="N30" t="n">
+        <v>140722.64</v>
+      </c>
+      <c r="O30" t="n">
+        <v>141033.22</v>
+      </c>
+      <c r="P30" t="n">
+        <v>142026.14</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>141251.41</v>
+      </c>
+      <c r="R30" t="n">
+        <v>140658.23</v>
+      </c>
+      <c r="S30" t="n">
+        <v>142448.98</v>
+      </c>
+      <c r="T30" t="n">
+        <v>139004.16</v>
+      </c>
+      <c r="U30" t="n">
+        <v>140730.36</v>
+      </c>
+      <c r="V30" t="n">
+        <v>141119.65</v>
+      </c>
+      <c r="W30" t="n">
+        <v>141760.54</v>
+      </c>
+      <c r="X30" t="n">
+        <v>141316.03</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>142601.79</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>142108.94</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>140460.84</v>
       </c>
     </row>
     <row r="31">
@@ -1735,40 +2943,82 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36804.22</v>
+        <v>104961.93</v>
       </c>
       <c r="C31" t="n">
-        <v>76993.42999999999</v>
+        <v>104923.14</v>
       </c>
       <c r="D31" t="n">
-        <v>76826.98</v>
+        <v>105088.51</v>
       </c>
       <c r="E31" t="n">
-        <v>76768.42999999999</v>
+        <v>105091.12</v>
       </c>
       <c r="F31" t="n">
-        <v>76763.33</v>
+        <v>117129.1</v>
       </c>
       <c r="G31" t="n">
-        <v>76738.92999999999</v>
+        <v>117153.63</v>
       </c>
       <c r="H31" t="n">
-        <v>77042.72</v>
+        <v>109008.55</v>
       </c>
       <c r="I31" t="n">
-        <v>96916.67</v>
+        <v>108943.58</v>
       </c>
       <c r="J31" t="n">
-        <v>101674.59</v>
+        <v>109082.52</v>
       </c>
       <c r="K31" t="n">
-        <v>101688.41</v>
+        <v>108806.44</v>
       </c>
       <c r="L31" t="n">
-        <v>104627.18</v>
+        <v>121854.12</v>
       </c>
       <c r="M31" t="n">
-        <v>104961.93</v>
+        <v>136484.09</v>
+      </c>
+      <c r="N31" t="n">
+        <v>136927.92</v>
+      </c>
+      <c r="O31" t="n">
+        <v>136587.86</v>
+      </c>
+      <c r="P31" t="n">
+        <v>124525.57</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>145246.44</v>
+      </c>
+      <c r="R31" t="n">
+        <v>145103.65</v>
+      </c>
+      <c r="S31" t="n">
+        <v>145014.48</v>
+      </c>
+      <c r="T31" t="n">
+        <v>142911.19</v>
+      </c>
+      <c r="U31" t="n">
+        <v>124903.18</v>
+      </c>
+      <c r="V31" t="n">
+        <v>124609.42</v>
+      </c>
+      <c r="W31" t="n">
+        <v>139990.9</v>
+      </c>
+      <c r="X31" t="n">
+        <v>156183.92</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>145998.12</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>127776.93</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>87880.02</v>
       </c>
     </row>
     <row r="32">
@@ -1778,40 +3028,82 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>123664.98</v>
+        <v>78100.8</v>
       </c>
       <c r="C32" t="n">
-        <v>123889.66</v>
+        <v>77646.56</v>
       </c>
       <c r="D32" t="n">
-        <v>123882.5</v>
+        <v>77613.17999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>124253.51</v>
+        <v>30223.51</v>
       </c>
       <c r="F32" t="n">
-        <v>123395.63</v>
+        <v>30089.4</v>
       </c>
       <c r="G32" t="n">
-        <v>77436.50999999999</v>
+        <v>30716.6</v>
       </c>
       <c r="H32" t="n">
-        <v>77899.2</v>
+        <v>29908.86</v>
       </c>
       <c r="I32" t="n">
-        <v>77604.3</v>
+        <v>30738.34</v>
       </c>
       <c r="J32" t="n">
-        <v>77989.85000000001</v>
+        <v>29827.73</v>
       </c>
       <c r="K32" t="n">
-        <v>77465.7</v>
+        <v>29848.39</v>
       </c>
       <c r="L32" t="n">
-        <v>78105.37</v>
+        <v>29849.04</v>
       </c>
       <c r="M32" t="n">
-        <v>78100.8</v>
+        <v>30257.28</v>
+      </c>
+      <c r="N32" t="n">
+        <v>30513.31</v>
+      </c>
+      <c r="O32" t="n">
+        <v>26676.72</v>
+      </c>
+      <c r="P32" t="n">
+        <v>27134.25</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>27079.06</v>
+      </c>
+      <c r="R32" t="n">
+        <v>97520.66</v>
+      </c>
+      <c r="S32" t="n">
+        <v>97451.46000000001</v>
+      </c>
+      <c r="T32" t="n">
+        <v>97765.17</v>
+      </c>
+      <c r="U32" t="n">
+        <v>97421.38</v>
+      </c>
+      <c r="V32" t="n">
+        <v>97577.61</v>
+      </c>
+      <c r="W32" t="n">
+        <v>97764.46000000001</v>
+      </c>
+      <c r="X32" t="n">
+        <v>97570.33</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>97620.52</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>103357.91</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>102784.14</v>
       </c>
     </row>
     <row r="33">
@@ -1821,280 +3113,507 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>87190.08</v>
+        <v>85648.28999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>86999.64999999999</v>
+        <v>81251.07000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>81963.94</v>
+        <v>81124.00999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>80634.59</v>
+        <v>81728.45</v>
       </c>
       <c r="F33" t="n">
-        <v>86783.95</v>
+        <v>80709.75999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>87919.48</v>
+        <v>87802.03</v>
       </c>
       <c r="H33" t="n">
-        <v>88198.53</v>
+        <v>88119.73</v>
       </c>
       <c r="I33" t="n">
-        <v>87703.22</v>
+        <v>88073.72</v>
       </c>
       <c r="J33" t="n">
-        <v>88150.64</v>
+        <v>87604.34</v>
       </c>
       <c r="K33" t="n">
-        <v>87993.88</v>
+        <v>88265.33</v>
       </c>
       <c r="L33" t="n">
-        <v>87948.94</v>
+        <v>86926.27</v>
       </c>
       <c r="M33" t="n">
-        <v>85648.28999999999</v>
+        <v>82837.8</v>
+      </c>
+      <c r="N33" t="n">
+        <v>81923.60000000001</v>
+      </c>
+      <c r="O33" t="n">
+        <v>82357.34</v>
+      </c>
+      <c r="P33" t="n">
+        <v>87928.73</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>81317.94</v>
+      </c>
+      <c r="R33" t="n">
+        <v>81179.73</v>
+      </c>
+      <c r="S33" t="n">
+        <v>81717.27</v>
+      </c>
+      <c r="T33" t="n">
+        <v>88117.81</v>
+      </c>
+      <c r="U33" t="n">
+        <v>88879.87</v>
+      </c>
+      <c r="V33" t="n">
+        <v>87705.09</v>
+      </c>
+      <c r="W33" t="n">
+        <v>88202.95</v>
+      </c>
+      <c r="X33" t="n">
+        <v>106915.15</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>107114.69</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>107380.02</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>107287.15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2522709.04</v>
+        <v>5241569.4</v>
       </c>
       <c r="C34" t="n">
-        <v>2523074.61</v>
+        <v>5239272.53</v>
       </c>
       <c r="D34" t="n">
-        <v>2611507.85</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+        <v>5243061.25</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5669570.89</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6077916.81</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6080175.62</v>
+      </c>
+      <c r="H34" t="n">
+        <v>6076129.05</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6075253.1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>6079793.43</v>
+      </c>
+      <c r="K34" t="n">
+        <v>6079174.59</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6081803.04</v>
+      </c>
+      <c r="M34" t="n">
+        <v>6076765.2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6080341.89</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6076454.67</v>
+      </c>
+      <c r="P34" t="n">
+        <v>6078607.69</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>6082224.11</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6077671.34</v>
+      </c>
+      <c r="S34" t="n">
+        <v>6076186.14</v>
+      </c>
+      <c r="T34" t="n">
+        <v>6077200.16</v>
+      </c>
+      <c r="U34" t="n">
+        <v>5920061.44</v>
+      </c>
+      <c r="V34" t="n">
+        <v>5926225.53</v>
+      </c>
+      <c r="W34" t="n">
+        <v>5921683.83</v>
+      </c>
+      <c r="X34" t="n">
+        <v>5927604.53</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>5553448.45</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>4930807.67</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>4080779.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4951585.53</v>
+        <v>786977.58</v>
       </c>
       <c r="C35" t="n">
-        <v>4953727.79</v>
+        <v>786441.13</v>
       </c>
       <c r="D35" t="n">
-        <v>4954159.19</v>
+        <v>786082.65</v>
       </c>
       <c r="E35" t="n">
-        <v>4951390.12</v>
+        <v>786735.98</v>
       </c>
       <c r="F35" t="n">
-        <v>4955029.64</v>
+        <v>787027.66</v>
       </c>
       <c r="G35" t="n">
-        <v>4951813.25</v>
+        <v>786537.25</v>
       </c>
       <c r="H35" t="n">
-        <v>4955077.32</v>
+        <v>786039.72</v>
       </c>
       <c r="I35" t="n">
-        <v>5099186.78</v>
+        <v>787924.1800000001</v>
       </c>
       <c r="J35" t="n">
-        <v>5241398.84</v>
+        <v>786440.66</v>
       </c>
       <c r="K35" t="n">
-        <v>5240417.94</v>
+        <v>786617.47</v>
       </c>
       <c r="L35" t="n">
-        <v>5236658.47</v>
+        <v>787141.63</v>
       </c>
       <c r="M35" t="n">
-        <v>5241569.4</v>
+        <v>787884.72</v>
+      </c>
+      <c r="N35" t="n">
+        <v>788029.66</v>
+      </c>
+      <c r="O35" t="n">
+        <v>786839.1899999999</v>
+      </c>
+      <c r="P35" t="n">
+        <v>786093.04</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>787920.41</v>
+      </c>
+      <c r="R35" t="n">
+        <v>785963.3100000001</v>
+      </c>
+      <c r="S35" t="n">
+        <v>786916.52</v>
+      </c>
+      <c r="T35" t="n">
+        <v>787295.76</v>
+      </c>
+      <c r="U35" t="n">
+        <v>787093.77</v>
+      </c>
+      <c r="V35" t="n">
+        <v>788619.26</v>
+      </c>
+      <c r="W35" t="n">
+        <v>785817.1800000001</v>
+      </c>
+      <c r="X35" t="n">
+        <v>786296.8</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>787301.0699999999</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>512587.4</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>513975.07</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>788234.37</v>
+        <v>54885.2</v>
       </c>
       <c r="C36" t="n">
-        <v>787038.3100000001</v>
+        <v>54718.64</v>
       </c>
       <c r="D36" t="n">
-        <v>786733.73</v>
+        <v>54776.7</v>
       </c>
       <c r="E36" t="n">
-        <v>787073.61</v>
+        <v>54781.15</v>
       </c>
       <c r="F36" t="n">
-        <v>788002.37</v>
+        <v>54722.96</v>
       </c>
       <c r="G36" t="n">
-        <v>787697.4300000001</v>
+        <v>54628.64</v>
       </c>
       <c r="H36" t="n">
-        <v>787027.5</v>
+        <v>54920.81</v>
       </c>
       <c r="I36" t="n">
-        <v>786308.0699999999</v>
+        <v>54887.81</v>
       </c>
       <c r="J36" t="n">
-        <v>786175.8</v>
+        <v>54606.01</v>
       </c>
       <c r="K36" t="n">
-        <v>787831.1</v>
+        <v>54808.95</v>
       </c>
       <c r="L36" t="n">
-        <v>788029.14</v>
+        <v>54917.73</v>
       </c>
       <c r="M36" t="n">
-        <v>786977.58</v>
+        <v>54796</v>
+      </c>
+      <c r="N36" t="n">
+        <v>54643.64</v>
+      </c>
+      <c r="O36" t="n">
+        <v>54931.89</v>
+      </c>
+      <c r="P36" t="n">
+        <v>54696.45</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>54736.65</v>
+      </c>
+      <c r="R36" t="n">
+        <v>54966.17</v>
+      </c>
+      <c r="S36" t="n">
+        <v>54828.85</v>
+      </c>
+      <c r="T36" t="n">
+        <v>54123.41</v>
+      </c>
+      <c r="U36" t="n">
+        <v>54883.55</v>
+      </c>
+      <c r="V36" t="n">
+        <v>54820.95</v>
+      </c>
+      <c r="W36" t="n">
+        <v>54889.29</v>
+      </c>
+      <c r="X36" t="n">
+        <v>54814.77</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>54869.68</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>54902.32</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>54826.79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54903.93</v>
+        <v>306241.65</v>
       </c>
       <c r="C37" t="n">
-        <v>54823.59</v>
+        <v>303220.39</v>
       </c>
       <c r="D37" t="n">
-        <v>54812.55</v>
+        <v>303364.35</v>
       </c>
       <c r="E37" t="n">
-        <v>54861.18</v>
+        <v>310179.61</v>
       </c>
       <c r="F37" t="n">
-        <v>54872.98</v>
+        <v>318359.3</v>
       </c>
       <c r="G37" t="n">
-        <v>54847.63</v>
+        <v>312991.72</v>
       </c>
       <c r="H37" t="n">
-        <v>54685.74</v>
+        <v>319256.71</v>
       </c>
       <c r="I37" t="n">
-        <v>54782.16</v>
+        <v>329623.46</v>
       </c>
       <c r="J37" t="n">
-        <v>54800.47</v>
+        <v>330019.76</v>
       </c>
       <c r="K37" t="n">
-        <v>54691.09</v>
+        <v>331184.73</v>
       </c>
       <c r="L37" t="n">
-        <v>54936.29</v>
+        <v>334649.85</v>
       </c>
       <c r="M37" t="n">
-        <v>54885.2</v>
+        <v>342312.76</v>
+      </c>
+      <c r="N37" t="n">
+        <v>352754.91</v>
+      </c>
+      <c r="O37" t="n">
+        <v>358332.98</v>
+      </c>
+      <c r="P37" t="n">
+        <v>373195.35</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>385815.8</v>
+      </c>
+      <c r="R37" t="n">
+        <v>390560.19</v>
+      </c>
+      <c r="S37" t="n">
+        <v>389021.17</v>
+      </c>
+      <c r="T37" t="n">
+        <v>388080.21</v>
+      </c>
+      <c r="U37" t="n">
+        <v>370036</v>
+      </c>
+      <c r="V37" t="n">
+        <v>369998.8</v>
+      </c>
+      <c r="W37" t="n">
+        <v>372218.54</v>
+      </c>
+      <c r="X37" t="n">
+        <v>375120.38</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>370367.69</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>336741.65</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>307213.79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>350063.25</v>
+        <v>10718457.82</v>
       </c>
       <c r="C38" t="n">
-        <v>400597.82</v>
+        <v>10612713.72</v>
       </c>
       <c r="D38" t="n">
-        <v>352371.38</v>
+        <v>10617752.32</v>
       </c>
       <c r="E38" t="n">
-        <v>288914.43</v>
+        <v>10856286.41</v>
       </c>
       <c r="F38" t="n">
-        <v>291098.84</v>
+        <v>11142575.63</v>
       </c>
       <c r="G38" t="n">
-        <v>291198.12</v>
+        <v>10954710.3</v>
       </c>
       <c r="H38" t="n">
-        <v>298804.28</v>
+        <v>10854728.16</v>
       </c>
       <c r="I38" t="n">
-        <v>304963.83</v>
+        <v>10877574.16</v>
       </c>
       <c r="J38" t="n">
-        <v>307971.21</v>
+        <v>10890652.04</v>
       </c>
       <c r="K38" t="n">
-        <v>307576.3</v>
+        <v>10929096.18</v>
       </c>
       <c r="L38" t="n">
-        <v>303910.54</v>
+        <v>11043445.02</v>
       </c>
       <c r="M38" t="n">
-        <v>306241.65</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>12602277.12</v>
-      </c>
-      <c r="C39" t="n">
-        <v>11617336.73</v>
-      </c>
-      <c r="D39" t="n">
-        <v>12685369.56</v>
-      </c>
-      <c r="E39" t="n">
-        <v>10112004.98</v>
-      </c>
-      <c r="F39" t="n">
-        <v>10188459.43</v>
-      </c>
-      <c r="G39" t="n">
-        <v>10191934.28</v>
-      </c>
-      <c r="H39" t="n">
-        <v>10458149.65</v>
-      </c>
-      <c r="I39" t="n">
-        <v>10673734.19</v>
-      </c>
-      <c r="J39" t="n">
-        <v>10778992.31</v>
-      </c>
-      <c r="K39" t="n">
-        <v>10765170.46</v>
-      </c>
-      <c r="L39" t="n">
-        <v>10636868.91</v>
-      </c>
-      <c r="M39" t="n">
-        <v>10718457.82</v>
+        <v>11296320.95</v>
+      </c>
+      <c r="N38" t="n">
+        <v>11640912.07</v>
+      </c>
+      <c r="O38" t="n">
+        <v>11824988.46</v>
+      </c>
+      <c r="P38" t="n">
+        <v>11942251.28</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>12346105.64</v>
+      </c>
+      <c r="R38" t="n">
+        <v>12497925.94</v>
+      </c>
+      <c r="S38" t="n">
+        <v>12448677.59</v>
+      </c>
+      <c r="T38" t="n">
+        <v>12418566.82</v>
+      </c>
+      <c r="U38" t="n">
+        <v>12211187.96</v>
+      </c>
+      <c r="V38" t="n">
+        <v>12209960.27</v>
+      </c>
+      <c r="W38" t="n">
+        <v>12283211.74</v>
+      </c>
+      <c r="X38" t="n">
+        <v>12378972.46</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>11851765.93</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>10775732.81</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>9830841.369999999</v>
       </c>
     </row>
   </sheetData>
